--- a/data/yasai.xlsx
+++ b/data/yasai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catfi\OneDrive\ドキュメント\GitHub\kyoyasai\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catfi\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_CEB82CF65B1A5BB3360CD3186A473DEDF8D1D661" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68CF6D46-05D0-4D99-B602-7BE8AF8A3FFE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_CEB82CF65B1A5BB3360CD3186A473DEDF8D1D661" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FF3C361-AFF7-4882-8B4E-3B5696365049}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1072,9 +1072,6 @@
     <t>https://kyoyasai.mirko.jp/cardimg/K012.jpg</t>
   </si>
   <si>
-    <t>天正19年（1591）に豊臣秀吉が京の都を外敵と災害から守るため周囲に御土居を築きました。そのためにいたるところに低地を生じ、肥沃な低湿地で藍の栽培を行い,その裏作として栽培されたのが始まりであるとされています。</t>
-  </si>
-  <si>
     <t>他産地で栽培されている品種と異にするものではありませんが、永年京都において育成淘汰し、固定した優良品種であると言われています。</t>
   </si>
   <si>
@@ -2032,9 +2029,6 @@
     <t>https://kyoyasai.mirko.jp/cardimg/K026.jpg</t>
   </si>
   <si>
-    <t>承和5年（838）の文献にせりの栽培が記載されていることからねぎの栽培とともに古く,湧水の多い低湿地の利用として多く栽培されたようです。現在のような湧水栽培が行われたのは約300年前と言われています。</t>
-  </si>
-  <si>
     <t>葉の形からとがったものを柳葉、丸味を帯びたものを丸葉と呼んでいます。さらに色や香り、栽培地域によって、京せり、青ぜり、お多福ぜり、山科ぜりに区別されています。</t>
   </si>
   <si>
@@ -2383,9 +2377,6 @@
     <t>たんぱく質、食物繊維、ビタミンＣ、カロテン、カルシウム、鉄がとても豊富な緑黄色野菜で、皮膚や粘膜の抵抗力を強めることから、風邪予防、美肌、老化防止、便秘等に効果があります。 濃い緑色で、茎や葉がピンと張り、切り口のみずみずしいものを選びます。</t>
   </si>
   <si>
-    <t>例年、5月20日ごろに初出荷の時期を迎え、この頃は1キロあたり2,000円を超える高値で市場に出回ります。 出荷先の内訳は、京都市場へ約8割、首都圏へ約1割、その他へ約1割出荷されます。</t>
-  </si>
-  <si>
     <t>12月上旬</t>
   </si>
   <si>
@@ -5075,13 +5066,184 @@
   </si>
   <si>
     <t>&lt;r=まんがんじあま&gt;万願寺甘&lt;/r&gt;とう</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例年、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日ごろに初出荷の時期を迎え、この頃は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キロあたり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>円を超える高値で市場に出回ります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>出荷先の内訳は、京都市場へ約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>割、首都圏へ約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>割、その他へ約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>割出荷されます。</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>天正19年（1591）に豊臣秀吉が京の都を外敵と災害から守るため周囲に御土居を築きました。そのためにいたるところに低地を生じ、肥沃な低湿地で藍の栽培を行い、その裏作として栽培されたのが始まりであるとされています。</t>
+  </si>
+  <si>
+    <t>承和5年（838）の文献にせりの栽培が記載されていることからねぎの栽培とともに古く、湧水の多い低湿地の利用として多く栽培されたようです。現在のような湧水栽培が行われたのは約300年前と言われています。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5186,6 +5348,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="18">
@@ -5343,7 +5519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5489,6 +5665,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5714,7 +5893,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5948,7 +6127,7 @@
         <v>55</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>56</v>
@@ -5963,10 +6142,10 @@
         <v>59</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="W2" s="22" t="s">
         <v>60</v>
@@ -6089,7 +6268,7 @@
         <v>88</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>56</v>
@@ -6104,7 +6283,7 @@
         <v>90</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>91</v>
@@ -6243,10 +6422,10 @@
         <v>117</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="W4" s="22" t="s">
         <v>118</v>
@@ -6386,10 +6565,10 @@
         <v>148</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="W5" s="22" t="s">
         <v>149</v>
@@ -6527,7 +6706,7 @@
         <v>173</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="V6" s="18" t="s">
         <v>174</v>
@@ -6668,10 +6847,10 @@
         <v>198</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="W7" s="22" t="s">
         <v>199</v>
@@ -6811,10 +6990,10 @@
         <v>198</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="W8" s="22" t="s">
         <v>223</v>
@@ -6954,10 +7133,10 @@
         <v>246</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W9" s="22" t="s">
         <v>247</v>
@@ -7097,10 +7276,10 @@
         <v>272</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="W10" s="22" t="s">
         <v>273</v>
@@ -7225,7 +7404,7 @@
         <v>293</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q11" s="18" t="s">
         <v>114</v>
@@ -7240,10 +7419,10 @@
         <v>295</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="W11" s="22" t="s">
         <v>296</v>
@@ -7309,7 +7488,7 @@
         <v>306</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AS11" s="18" t="s">
         <v>307</v>
@@ -7383,10 +7562,10 @@
         <v>318</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>319</v>
@@ -7526,10 +7705,10 @@
         <v>340</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="W13" s="22" t="s">
         <v>341</v>
@@ -7550,13 +7729,13 @@
         <v>62</v>
       </c>
       <c r="AC13" s="18" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AD13" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="AD13" s="18" t="s">
+      <c r="AE13" s="18" t="s">
         <v>343</v>
-      </c>
-      <c r="AE13" s="18" t="s">
-        <v>344</v>
       </c>
       <c r="AF13" s="18" t="s">
         <v>227</v>
@@ -7574,10 +7753,10 @@
         <v>71</v>
       </c>
       <c r="AK13" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL13" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="AL13" s="18" t="s">
-        <v>346</v>
       </c>
       <c r="AM13" s="18" t="s">
         <v>334</v>
@@ -7586,13 +7765,13 @@
         <v>335</v>
       </c>
       <c r="AO13" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP13" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="AP13" s="18" t="s">
+      <c r="AQ13" s="18" t="s">
         <v>348</v>
-      </c>
-      <c r="AQ13" s="18" t="s">
-        <v>349</v>
       </c>
       <c r="AR13" s="18" t="s">
         <v>185</v>
@@ -7601,21 +7780,21 @@
         <v>339</v>
       </c>
       <c r="AT13" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU13" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="AU13" s="18" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="15.75" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="19">
         <v>100</v>
@@ -7636,10 +7815,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>354</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>355</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>142</v>
@@ -7648,13 +7827,13 @@
         <v>143</v>
       </c>
       <c r="N14" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="P14" s="18" t="s">
         <v>357</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>358</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>114</v>
@@ -7663,19 +7842,19 @@
         <v>115</v>
       </c>
       <c r="S14" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="T14" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="U14" s="18" t="s">
+        <v>1607</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W14" s="22" t="s">
         <v>360</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>1610</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>1641</v>
-      </c>
-      <c r="W14" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="X14" s="23" t="s">
         <v>61</v>
@@ -7693,19 +7872,19 @@
         <v>62</v>
       </c>
       <c r="AC14" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD14" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="AD14" s="18" t="s">
+      <c r="AE14" s="18" t="s">
         <v>363</v>
-      </c>
-      <c r="AE14" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="AF14" s="18" t="s">
         <v>227</v>
       </c>
       <c r="AG14" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH14" s="18" t="s">
         <v>69</v>
@@ -7717,48 +7896,48 @@
         <v>71</v>
       </c>
       <c r="AK14" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL14" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="AL14" s="18" t="s">
+      <c r="AM14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO14" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="AM14" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN14" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO14" s="18" t="s">
+      <c r="AP14" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="AP14" s="18" t="s">
+      <c r="AQ14" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="AQ14" s="18" t="s">
+      <c r="AR14" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="AR14" s="18" t="s">
+      <c r="AS14" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="AS14" s="18" t="s">
+      <c r="AT14" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="AT14" s="18" t="s">
+      <c r="AU14" s="18" t="s">
         <v>373</v>
-      </c>
-      <c r="AU14" s="18" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>376</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>377</v>
       </c>
       <c r="D15" s="19">
         <v>100</v>
@@ -7779,10 +7958,10 @@
         <v>33</v>
       </c>
       <c r="J15" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>379</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>109</v>
@@ -7791,10 +7970,10 @@
         <v>110</v>
       </c>
       <c r="N15" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="O15" s="18" t="s">
         <v>380</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>381</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>270</v>
@@ -7806,22 +7985,22 @@
         <v>57</v>
       </c>
       <c r="S15" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="T15" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="U15" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="W15" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="X15" s="31" t="s">
         <v>386</v>
-      </c>
-      <c r="X15" s="31" t="s">
-        <v>387</v>
       </c>
       <c r="Y15" s="32" t="s">
         <v>62</v>
@@ -7836,19 +8015,19 @@
         <v>63</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD15" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="AD15" s="18" t="s">
+      <c r="AE15" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="AE15" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="AF15" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH15" s="18" t="s">
         <v>69</v>
@@ -7857,49 +8036,49 @@
         <v>70</v>
       </c>
       <c r="AJ15" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK15" s="18" t="s">
         <v>392</v>
-      </c>
-      <c r="AK15" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN15" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="AN15" s="18" t="s">
+      <c r="AO15" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="AO15" s="18" t="s">
+      <c r="AP15" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="AP15" s="18" t="s">
+      <c r="AQ15" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="AQ15" s="18" t="s">
-        <v>398</v>
       </c>
       <c r="AR15" s="18" t="s">
         <v>283</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT15" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="AT15" s="18" t="s">
+      <c r="AU15" s="18" t="s">
         <v>400</v>
-      </c>
-      <c r="AU15" s="18" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>403</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>404</v>
       </c>
       <c r="D16" s="19">
         <v>80</v>
@@ -7920,10 +8099,10 @@
         <v>9</v>
       </c>
       <c r="J16" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>406</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>52</v>
@@ -7932,13 +8111,13 @@
         <v>53</v>
       </c>
       <c r="N16" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>408</v>
-      </c>
       <c r="P16" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q16" s="18" t="s">
         <v>114</v>
@@ -7947,22 +8126,22 @@
         <v>115</v>
       </c>
       <c r="S16" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="T16" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="U16" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="V16" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="V16" s="21" t="s">
+      <c r="W16" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="W16" s="22" t="s">
-        <v>413</v>
-      </c>
       <c r="X16" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y16" s="32" t="s">
         <v>62</v>
@@ -7977,13 +8156,13 @@
         <v>63</v>
       </c>
       <c r="AC16" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD16" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="AD16" s="18" t="s">
+      <c r="AE16" s="18" t="s">
         <v>415</v>
-      </c>
-      <c r="AE16" s="18" t="s">
-        <v>416</v>
       </c>
       <c r="AF16" s="18" t="s">
         <v>203</v>
@@ -7998,49 +8177,49 @@
         <v>70</v>
       </c>
       <c r="AJ16" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK16" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN16" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="AN16" s="18" t="s">
+      <c r="AO16" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="AO16" s="18" t="s">
+      <c r="AP16" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ16" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="AP16" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="AQ16" s="18" t="s">
+      <c r="AR16" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS16" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="AR16" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS16" s="18" t="s">
+      <c r="AT16" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="AT16" s="18" t="s">
+      <c r="AU16" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="AU16" s="18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="15.75" customHeight="1">
       <c r="A17" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>427</v>
       </c>
       <c r="D17" s="19">
         <v>110</v>
@@ -8061,10 +8240,10 @@
         <v>7</v>
       </c>
       <c r="J17" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>429</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>142</v>
@@ -8073,13 +8252,13 @@
         <v>143</v>
       </c>
       <c r="N17" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="O17" s="18" t="s">
-        <v>431</v>
-      </c>
       <c r="P17" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="18" t="s">
         <v>56</v>
@@ -8088,22 +8267,22 @@
         <v>57</v>
       </c>
       <c r="S17" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="T17" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="U17" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="V17" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="W17" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="W17" s="22" t="s">
-        <v>436</v>
-      </c>
       <c r="X17" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y17" s="32" t="s">
         <v>62</v>
@@ -8118,13 +8297,13 @@
         <v>63</v>
       </c>
       <c r="AC17" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD17" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AE17" s="18" t="s">
         <v>438</v>
-      </c>
-      <c r="AE17" s="18" t="s">
-        <v>439</v>
       </c>
       <c r="AF17" s="18" t="s">
         <v>203</v>
@@ -8139,49 +8318,49 @@
         <v>70</v>
       </c>
       <c r="AJ17" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK17" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN17" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="AN17" s="18" t="s">
+      <c r="AO17" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="AO17" s="18" t="s">
+      <c r="AP17" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="AP17" s="18" t="s">
+      <c r="AQ17" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="AQ17" s="18" t="s">
+      <c r="AR17" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS17" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="AR17" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS17" s="18" t="s">
+      <c r="AT17" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="AT17" s="18" t="s">
+      <c r="AU17" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="AU17" s="18" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="15.75" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>450</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>451</v>
       </c>
       <c r="D18" s="19">
         <v>120</v>
@@ -8202,10 +8381,10 @@
         <v>5</v>
       </c>
       <c r="J18" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>52</v>
@@ -8214,13 +8393,13 @@
         <v>53</v>
       </c>
       <c r="N18" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="O18" s="18" t="s">
-        <v>455</v>
-      </c>
       <c r="P18" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q18" s="18" t="s">
         <v>56</v>
@@ -8229,22 +8408,22 @@
         <v>57</v>
       </c>
       <c r="S18" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="T18" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="U18" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="V18" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="W18" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="W18" s="22" t="s">
-        <v>460</v>
-      </c>
       <c r="X18" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y18" s="32" t="s">
         <v>62</v>
@@ -8259,13 +8438,13 @@
         <v>63</v>
       </c>
       <c r="AC18" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD18" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="AD18" s="18" t="s">
+      <c r="AE18" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="AE18" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="AF18" s="18" t="s">
         <v>203</v>
@@ -8280,49 +8459,49 @@
         <v>70</v>
       </c>
       <c r="AJ18" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AL18" s="18"/>
       <c r="AM18" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN18" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="AN18" s="18" t="s">
+      <c r="AO18" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="AO18" s="18" t="s">
+      <c r="AP18" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="AP18" s="18" t="s">
+      <c r="AQ18" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="AQ18" s="18" t="s">
+      <c r="AR18" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS18" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="AR18" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS18" s="18" t="s">
+      <c r="AT18" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="AT18" s="18" t="s">
+      <c r="AU18" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="AU18" s="18" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="15.75" customHeight="1">
       <c r="A19" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>474</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>475</v>
       </c>
       <c r="D19" s="19">
         <v>70</v>
@@ -8343,10 +8522,10 @@
         <v>25</v>
       </c>
       <c r="J19" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>476</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>477</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>109</v>
@@ -8355,10 +8534,10 @@
         <v>110</v>
       </c>
       <c r="N19" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>479</v>
       </c>
       <c r="P19" s="18" t="s">
         <v>270</v>
@@ -8370,22 +8549,22 @@
         <v>115</v>
       </c>
       <c r="S19" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="T19" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="U19" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="V19" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="V19" s="18" t="s">
+      <c r="W19" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="W19" s="22" t="s">
-        <v>484</v>
-      </c>
       <c r="X19" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y19" s="32" t="s">
         <v>62</v>
@@ -8400,19 +8579,19 @@
         <v>63</v>
       </c>
       <c r="AC19" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD19" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="AD19" s="18" t="s">
+      <c r="AE19" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="AE19" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="AF19" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AG19" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH19" s="18" t="s">
         <v>69</v>
@@ -8421,49 +8600,49 @@
         <v>70</v>
       </c>
       <c r="AJ19" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK19" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL19" s="18"/>
       <c r="AM19" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="AN19" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO19" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="AN19" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="AO19" s="18" t="s">
+      <c r="AP19" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="AP19" s="18" t="s">
+      <c r="AQ19" s="18" t="s">
         <v>491</v>
-      </c>
-      <c r="AQ19" s="18" t="s">
-        <v>492</v>
       </c>
       <c r="AR19" s="18" t="s">
         <v>283</v>
       </c>
       <c r="AS19" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="AT19" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="AT19" s="18" t="s">
+      <c r="AU19" s="18" t="s">
         <v>494</v>
-      </c>
-      <c r="AU19" s="18" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="15.75" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>497</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>498</v>
       </c>
       <c r="D20" s="19">
         <v>80</v>
@@ -8484,10 +8663,10 @@
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>109</v>
@@ -8496,10 +8675,10 @@
         <v>110</v>
       </c>
       <c r="N20" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O20" s="18" t="s">
         <v>501</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>502</v>
       </c>
       <c r="P20" s="18" t="s">
         <v>113</v>
@@ -8511,22 +8690,22 @@
         <v>57</v>
       </c>
       <c r="S20" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="T20" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="U20" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="V20" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="V20" s="33" t="s">
+      <c r="W20" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="W20" s="22" t="s">
-        <v>507</v>
-      </c>
       <c r="X20" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y20" s="32" t="s">
         <v>62</v>
@@ -8541,13 +8720,13 @@
         <v>63</v>
       </c>
       <c r="AC20" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD20" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="AD20" s="18" t="s">
+      <c r="AE20" s="18" t="s">
         <v>509</v>
-      </c>
-      <c r="AE20" s="18" t="s">
-        <v>510</v>
       </c>
       <c r="AF20" s="18" t="s">
         <v>228</v>
@@ -8562,49 +8741,49 @@
         <v>70</v>
       </c>
       <c r="AJ20" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK20" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL20" s="18"/>
       <c r="AM20" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN20" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO20" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="AN20" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="AO20" s="18" t="s">
+      <c r="AP20" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="AP20" s="18" t="s">
+      <c r="AQ20" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="AQ20" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="AR20" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS20" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="AT20" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="AT20" s="18" t="s">
+      <c r="AU20" s="18" t="s">
         <v>517</v>
-      </c>
-      <c r="AU20" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:47" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="D21" s="19">
         <v>100</v>
@@ -8625,10 +8804,10 @@
         <v>11</v>
       </c>
       <c r="J21" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>522</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>523</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>142</v>
@@ -8637,10 +8816,10 @@
         <v>143</v>
       </c>
       <c r="N21" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>524</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>525</v>
       </c>
       <c r="P21" s="18" t="s">
         <v>146</v>
@@ -8652,22 +8831,22 @@
         <v>57</v>
       </c>
       <c r="S21" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="T21" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="U21" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="V21" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="W21" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="W21" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="X21" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y21" s="32" t="s">
         <v>62</v>
@@ -8682,13 +8861,13 @@
         <v>63</v>
       </c>
       <c r="AC21" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD21" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="AD21" s="18" t="s">
+      <c r="AE21" s="18" t="s">
         <v>532</v>
-      </c>
-      <c r="AE21" s="18" t="s">
-        <v>533</v>
       </c>
       <c r="AF21" s="18" t="s">
         <v>153</v>
@@ -8703,49 +8882,49 @@
         <v>70</v>
       </c>
       <c r="AJ21" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK21" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AL21" s="18"/>
       <c r="AM21" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="AN21" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO21" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="AP21" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="AN21" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="AO21" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="AP21" s="18" t="s">
+      <c r="AQ21" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="AQ21" s="18" t="s">
-        <v>537</v>
       </c>
       <c r="AR21" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS21" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT21" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="AT21" s="18" t="s">
+      <c r="AU21" s="18" t="s">
         <v>539</v>
-      </c>
-      <c r="AU21" s="18" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="15.75" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>542</v>
-      </c>
       <c r="C22" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D22" s="19">
         <v>60</v>
@@ -8766,10 +8945,10 @@
         <v>30</v>
       </c>
       <c r="J22" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>142</v>
@@ -8778,13 +8957,13 @@
         <v>143</v>
       </c>
       <c r="N22" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="O22" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="O22" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="P22" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="18" t="s">
         <v>114</v>
@@ -8793,22 +8972,22 @@
         <v>115</v>
       </c>
       <c r="S22" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="T22" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="U22" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="V22" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="V22" s="33" t="s">
+      <c r="W22" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="W22" s="22" t="s">
-        <v>551</v>
-      </c>
       <c r="X22" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y22" s="32" t="s">
         <v>62</v>
@@ -8823,13 +9002,13 @@
         <v>63</v>
       </c>
       <c r="AC22" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD22" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="AD22" s="18" t="s">
+      <c r="AE22" s="18" t="s">
         <v>553</v>
-      </c>
-      <c r="AE22" s="18" t="s">
-        <v>554</v>
       </c>
       <c r="AF22" s="18" t="s">
         <v>122</v>
@@ -8844,49 +9023,49 @@
         <v>70</v>
       </c>
       <c r="AJ22" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK22" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AL22" s="18"/>
       <c r="AM22" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AN22" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO22" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="AO22" s="18" t="s">
+      <c r="AP22" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AQ22" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="AR22" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS22" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="AP22" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AQ22" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="AR22" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS22" s="18" t="s">
+      <c r="AT22" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="AT22" s="18" t="s">
+      <c r="AU22" s="18" t="s">
         <v>559</v>
-      </c>
-      <c r="AU22" s="18" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="15.75" customHeight="1">
       <c r="A23" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>563</v>
       </c>
       <c r="D23" s="19">
         <v>70</v>
@@ -8907,10 +9086,10 @@
         <v>15</v>
       </c>
       <c r="J23" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>565</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>142</v>
@@ -8919,13 +9098,13 @@
         <v>143</v>
       </c>
       <c r="N23" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="O23" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>567</v>
-      </c>
       <c r="P23" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="18" t="s">
         <v>56</v>
@@ -8934,22 +9113,22 @@
         <v>57</v>
       </c>
       <c r="S23" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="T23" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="U23" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="V23" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="V23" s="18" t="s">
+      <c r="W23" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="W23" s="22" t="s">
-        <v>572</v>
-      </c>
       <c r="X23" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y23" s="32" t="s">
         <v>62</v>
@@ -8964,13 +9143,13 @@
         <v>63</v>
       </c>
       <c r="AC23" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD23" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="AD23" s="18" t="s">
+      <c r="AE23" s="18" t="s">
         <v>574</v>
-      </c>
-      <c r="AE23" s="18" t="s">
-        <v>575</v>
       </c>
       <c r="AF23" s="18" t="s">
         <v>122</v>
@@ -8985,49 +9164,49 @@
         <v>70</v>
       </c>
       <c r="AJ23" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK23" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN23" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="AO23" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="AN23" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="AO23" s="18" t="s">
+      <c r="AP23" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="AP23" s="18" t="s">
+      <c r="AQ23" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AQ23" s="18" t="s">
+      <c r="AR23" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS23" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="AT23" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AR23" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS23" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="AT23" s="18" t="s">
+      <c r="AU23" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="AU23" s="18" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="15.75" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>584</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>585</v>
       </c>
       <c r="D24" s="19">
         <v>130</v>
@@ -9048,10 +9227,10 @@
         <v>8</v>
       </c>
       <c r="J24" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>586</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>587</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>109</v>
@@ -9060,10 +9239,10 @@
         <v>110</v>
       </c>
       <c r="N24" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>588</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>589</v>
       </c>
       <c r="P24" s="18" t="s">
         <v>171</v>
@@ -9075,22 +9254,22 @@
         <v>57</v>
       </c>
       <c r="S24" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="T24" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="U24" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="V24" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="V24" s="18" t="s">
+      <c r="W24" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="W24" s="22" t="s">
-        <v>594</v>
-      </c>
       <c r="X24" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y24" s="32" t="s">
         <v>62</v>
@@ -9105,16 +9284,16 @@
         <v>63</v>
       </c>
       <c r="AC24" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD24" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="AD24" s="18" t="s">
+      <c r="AE24" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="AE24" s="18" t="s">
+      <c r="AF24" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="AF24" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="AG24" s="18" t="s">
         <v>152</v>
@@ -9126,49 +9305,49 @@
         <v>70</v>
       </c>
       <c r="AJ24" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK24" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AL24" s="18"/>
       <c r="AM24" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN24" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="AO24" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AN24" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="AO24" s="18" t="s">
+      <c r="AP24" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AP24" s="18" t="s">
+      <c r="AQ24" s="18" t="s">
         <v>602</v>
-      </c>
-      <c r="AQ24" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="AR24" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS24" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT24" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AT24" s="18" t="s">
+      <c r="AU24" s="18" t="s">
         <v>605</v>
-      </c>
-      <c r="AU24" s="18" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="15.75" customHeight="1">
       <c r="A25" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>608</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>609</v>
       </c>
       <c r="D25" s="19">
         <v>80</v>
@@ -9189,10 +9368,10 @@
         <v>35</v>
       </c>
       <c r="J25" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>610</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>611</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>52</v>
@@ -9201,13 +9380,13 @@
         <v>53</v>
       </c>
       <c r="N25" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="O25" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="O25" s="18" t="s">
-        <v>613</v>
-      </c>
       <c r="P25" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q25" s="18" t="s">
         <v>114</v>
@@ -9216,22 +9395,22 @@
         <v>115</v>
       </c>
       <c r="S25" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="T25" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="U25" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="V25" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="W25" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="W25" s="22" t="s">
-        <v>618</v>
-      </c>
       <c r="X25" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y25" s="32" t="s">
         <v>62</v>
@@ -9246,13 +9425,13 @@
         <v>63</v>
       </c>
       <c r="AC25" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD25" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="AD25" s="34" t="s">
-        <v>620</v>
-      </c>
       <c r="AE25" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF25" s="18" t="s">
         <v>122</v>
@@ -9267,49 +9446,49 @@
         <v>70</v>
       </c>
       <c r="AJ25" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK25" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AL25" s="34"/>
       <c r="AM25" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN25" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AO25" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="AN25" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="AO25" s="18" t="s">
+      <c r="AP25" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="AP25" s="18" t="s">
+      <c r="AQ25" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="AQ25" s="18" t="s">
+      <c r="AR25" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS25" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AT25" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="AR25" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS25" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="AT25" s="18" t="s">
+      <c r="AU25" s="18" t="s">
         <v>626</v>
-      </c>
-      <c r="AU25" s="18" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="15.75" customHeight="1">
       <c r="A26" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>629</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>630</v>
       </c>
       <c r="D26" s="19">
         <v>80</v>
@@ -9330,10 +9509,10 @@
         <v>20</v>
       </c>
       <c r="J26" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>631</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>632</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>52</v>
@@ -9342,13 +9521,13 @@
         <v>53</v>
       </c>
       <c r="N26" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="O26" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>634</v>
-      </c>
       <c r="P26" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q26" s="18" t="s">
         <v>56</v>
@@ -9357,22 +9536,22 @@
         <v>57</v>
       </c>
       <c r="S26" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="T26" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="U26" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="U26" s="18" t="s">
+      <c r="V26" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="W26" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="W26" s="22" t="s">
-        <v>639</v>
-      </c>
       <c r="X26" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y26" s="32" t="s">
         <v>62</v>
@@ -9387,19 +9566,19 @@
         <v>63</v>
       </c>
       <c r="AC26" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD26" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="AD26" s="34" t="s">
+      <c r="AE26" s="34" t="s">
         <v>641</v>
-      </c>
-      <c r="AE26" s="34" t="s">
-        <v>642</v>
       </c>
       <c r="AF26" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AG26" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH26" s="18" t="s">
         <v>69</v>
@@ -9408,49 +9587,49 @@
         <v>70</v>
       </c>
       <c r="AJ26" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK26" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL26" s="34"/>
       <c r="AM26" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN26" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="AN26" s="18" t="s">
+      <c r="AO26" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="AO26" s="18" t="s">
+      <c r="AP26" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="AP26" s="18" t="s">
+      <c r="AQ26" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="AQ26" s="18" t="s">
+      <c r="AR26" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS26" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="AR26" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS26" s="18" t="s">
+      <c r="AT26" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="AT26" s="18" t="s">
+      <c r="AU26" s="18" t="s">
         <v>650</v>
-      </c>
-      <c r="AU26" s="18" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="15.75" customHeight="1">
       <c r="A27" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>653</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>654</v>
       </c>
       <c r="D27" s="19">
         <v>80</v>
@@ -9471,10 +9650,10 @@
         <v>20</v>
       </c>
       <c r="J27" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>655</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>656</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>52</v>
@@ -9483,13 +9662,13 @@
         <v>53</v>
       </c>
       <c r="N27" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="O27" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="O27" s="18" t="s">
-        <v>658</v>
-      </c>
       <c r="P27" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>56</v>
@@ -9498,22 +9677,22 @@
         <v>57</v>
       </c>
       <c r="S27" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="T27" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="T27" s="18" t="s">
+      <c r="U27" s="18" t="s">
+        <v>1608</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W27" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="U27" s="18" t="s">
-        <v>1611</v>
-      </c>
-      <c r="V27" s="21" t="s">
-        <v>1642</v>
-      </c>
-      <c r="W27" s="22" t="s">
-        <v>661</v>
-      </c>
       <c r="X27" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y27" s="32" t="s">
         <v>62</v>
@@ -9528,13 +9707,13 @@
         <v>63</v>
       </c>
       <c r="AC27" s="34" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AD27" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE27" s="34" t="s">
         <v>662</v>
-      </c>
-      <c r="AD27" s="34" t="s">
-        <v>663</v>
-      </c>
-      <c r="AE27" s="34" t="s">
-        <v>664</v>
       </c>
       <c r="AF27" s="18" t="s">
         <v>227</v>
@@ -9549,49 +9728,49 @@
         <v>70</v>
       </c>
       <c r="AJ27" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK27" s="34" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AL27" s="34"/>
       <c r="AM27" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN27" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="AO27" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="AP27" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="AN27" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="AO27" s="18" t="s">
+      <c r="AR27" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS27" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="AP27" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="AQ27" s="18" t="s">
+      <c r="AT27" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="AR27" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS27" s="18" t="s">
+      <c r="AU27" s="18" t="s">
         <v>669</v>
-      </c>
-      <c r="AT27" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU27" s="18" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="15.75" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>672</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>674</v>
       </c>
       <c r="D28" s="19">
         <v>100</v>
@@ -9612,10 +9791,10 @@
         <v>33</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>142</v>
@@ -9624,10 +9803,10 @@
         <v>143</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P28" s="18" t="s">
         <v>196</v>
@@ -9639,22 +9818,22 @@
         <v>115</v>
       </c>
       <c r="S28" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="U28" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="T28" s="18" t="s">
+      <c r="V28" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="W28" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="V28" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="W28" s="22" t="s">
-        <v>683</v>
-      </c>
       <c r="X28" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y28" s="32" t="s">
         <v>62</v>
@@ -9669,19 +9848,19 @@
         <v>63</v>
       </c>
       <c r="AC28" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD28" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE28" s="34" t="s">
         <v>684</v>
-      </c>
-      <c r="AD28" s="34" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE28" s="34" t="s">
-        <v>686</v>
       </c>
       <c r="AF28" s="18" t="s">
         <v>179</v>
       </c>
       <c r="AG28" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AH28" s="18" t="s">
         <v>69</v>
@@ -9690,49 +9869,49 @@
         <v>70</v>
       </c>
       <c r="AJ28" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK28" s="34" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AL28" s="34"/>
       <c r="AM28" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="AN28" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="AO28" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="AP28" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="AN28" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="AO28" s="18" t="s">
+      <c r="AQ28" s="18" t="s">
         <v>690</v>
-      </c>
-      <c r="AP28" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="AQ28" s="18" t="s">
-        <v>692</v>
       </c>
       <c r="AR28" s="18" t="s">
         <v>211</v>
       </c>
       <c r="AS28" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="AT28" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="AU28" s="18" t="s">
         <v>693</v>
-      </c>
-      <c r="AT28" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="AU28" s="18" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="15.75" customHeight="1">
       <c r="A29" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>696</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>697</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>698</v>
       </c>
       <c r="D29" s="19">
         <v>80</v>
@@ -9753,10 +9932,10 @@
         <v>14</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>142</v>
@@ -9765,10 +9944,10 @@
         <v>143</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>146</v>
@@ -9780,22 +9959,22 @@
         <v>57</v>
       </c>
       <c r="S29" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="T29" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="U29" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="T29" s="18" t="s">
+      <c r="V29" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="U29" s="18" t="s">
+      <c r="W29" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="V29" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="W29" s="22" t="s">
-        <v>707</v>
-      </c>
       <c r="X29" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y29" s="32" t="s">
         <v>62</v>
@@ -9810,19 +9989,19 @@
         <v>63</v>
       </c>
       <c r="AC29" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE29" s="34" t="s">
         <v>708</v>
-      </c>
-      <c r="AD29" s="34" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE29" s="34" t="s">
-        <v>710</v>
       </c>
       <c r="AF29" s="18" t="s">
         <v>179</v>
       </c>
       <c r="AG29" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AH29" s="18" t="s">
         <v>69</v>
@@ -9831,49 +10010,49 @@
         <v>70</v>
       </c>
       <c r="AJ29" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK29" s="34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AL29" s="34"/>
       <c r="AM29" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="AN29" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="AO29" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="AP29" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="AN29" s="18" t="s">
-        <v>699</v>
-      </c>
-      <c r="AO29" s="18" t="s">
+      <c r="AQ29" s="18" t="s">
         <v>713</v>
-      </c>
-      <c r="AP29" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="AQ29" s="18" t="s">
-        <v>715</v>
       </c>
       <c r="AR29" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS29" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="AT29" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="AU29" s="18" t="s">
         <v>716</v>
-      </c>
-      <c r="AT29" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="AU29" s="18" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>719</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>721</v>
       </c>
       <c r="D30" s="19">
         <v>90</v>
@@ -9894,7 +10073,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>168</v>
@@ -9906,10 +10085,10 @@
         <v>110</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>113</v>
@@ -9921,22 +10100,22 @@
         <v>57</v>
       </c>
       <c r="S30" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="U30" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="V30" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="U30" s="18" t="s">
+      <c r="W30" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="V30" s="21" t="s">
+      <c r="X30" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="W30" s="22" t="s">
-        <v>729</v>
-      </c>
-      <c r="X30" s="35" t="s">
-        <v>730</v>
       </c>
       <c r="Y30" s="36" t="s">
         <v>63</v>
@@ -9951,70 +10130,70 @@
         <v>63</v>
       </c>
       <c r="AC30" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD30" s="37" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE30" s="38" t="s">
         <v>731</v>
       </c>
-      <c r="AD30" s="37" t="s">
+      <c r="AF30" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="AE30" s="38" t="s">
+      <c r="AG30" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="AF30" s="18" t="s">
+      <c r="AH30" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="AG30" s="18" t="s">
+      <c r="AI30" s="22" t="s">
         <v>735</v>
-      </c>
-      <c r="AH30" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="AI30" s="22" t="s">
-        <v>737</v>
       </c>
       <c r="AJ30" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK30" s="39" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AL30" s="34"/>
       <c r="AM30" s="18" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="AN30" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AO30" s="18" t="s">
         <v>182</v>
       </c>
       <c r="AP30" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AQ30" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AR30" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS30" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT30" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="AU30" s="18" t="s">
         <v>741</v>
-      </c>
-      <c r="AT30" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="AU30" s="18" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>744</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>746</v>
       </c>
       <c r="D31" s="19">
         <v>80</v>
@@ -10035,10 +10214,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>109</v>
@@ -10047,10 +10226,10 @@
         <v>110</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>113</v>
@@ -10062,22 +10241,22 @@
         <v>115</v>
       </c>
       <c r="S31" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="U31" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="V31" s="18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W31" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V31" s="18" t="s">
-        <v>1174</v>
-      </c>
-      <c r="W31" s="22" t="s">
-        <v>754</v>
-      </c>
       <c r="X31" s="35" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Y31" s="36" t="s">
         <v>63</v>
@@ -10092,10 +10271,10 @@
         <v>63</v>
       </c>
       <c r="AC31" s="34" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD31" s="34" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AE31" s="40"/>
       <c r="AF31" s="18" t="s">
@@ -10111,49 +10290,49 @@
         <v>70</v>
       </c>
       <c r="AJ31" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK31" s="34" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AL31" s="34"/>
       <c r="AM31" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="AN31" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="AO31" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="AP31" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="AN31" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="AO31" s="18" t="s">
+      <c r="AQ31" s="18" t="s">
         <v>759</v>
-      </c>
-      <c r="AP31" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="AQ31" s="18" t="s">
-        <v>761</v>
       </c>
       <c r="AR31" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS31" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="AT31" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="AU31" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="AT31" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="AU31" s="18" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>765</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>767</v>
       </c>
       <c r="D32" s="19">
         <v>70</v>
@@ -10174,10 +10353,10 @@
         <v>10</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>52</v>
@@ -10186,13 +10365,13 @@
         <v>53</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q32" s="18" t="s">
         <v>56</v>
@@ -10201,22 +10380,22 @@
         <v>57</v>
       </c>
       <c r="S32" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="T32" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="U32" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="T32" s="18" t="s">
+      <c r="V32" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="U32" s="18" t="s">
+      <c r="W32" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="V32" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="W32" s="22" t="s">
-        <v>776</v>
-      </c>
       <c r="X32" s="35" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Y32" s="36" t="s">
         <v>63</v>
@@ -10231,19 +10410,19 @@
         <v>63</v>
       </c>
       <c r="AC32" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD32" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE32" s="60" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AF32" s="18" t="s">
         <v>777</v>
       </c>
-      <c r="AD32" s="34" t="s">
-        <v>778</v>
-      </c>
-      <c r="AE32" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="AF32" s="18" t="s">
-        <v>780</v>
-      </c>
       <c r="AG32" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH32" s="18" t="s">
         <v>69</v>
@@ -10255,48 +10434,48 @@
         <v>71</v>
       </c>
       <c r="AK32" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="AL32" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="AM32" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="AN32" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="AL32" s="34" t="s">
+      <c r="AO32" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="AM32" s="18" t="s">
+      <c r="AP32" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AQ32" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="AN32" s="18" t="s">
+      <c r="AR32" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS32" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="AO32" s="18" t="s">
+      <c r="AT32" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="AP32" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="AQ32" s="18" t="s">
+      <c r="AU32" s="18" t="s">
         <v>786</v>
-      </c>
-      <c r="AR32" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS32" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="AT32" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="AU32" s="18" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="33" spans="1:47" ht="15.75" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D33" s="19">
         <v>90</v>
@@ -10317,10 +10496,10 @@
         <v>28</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>109</v>
@@ -10329,10 +10508,10 @@
         <v>110</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>171</v>
@@ -10344,22 +10523,22 @@
         <v>57</v>
       </c>
       <c r="S33" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="V33" s="21" t="s">
         <v>797</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="W33" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="U33" s="18" t="s">
+      <c r="X33" s="41" t="s">
         <v>799</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>800</v>
-      </c>
-      <c r="W33" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="X33" s="41" t="s">
-        <v>802</v>
       </c>
       <c r="Y33" s="42" t="s">
         <v>63</v>
@@ -10374,16 +10553,16 @@
         <v>63</v>
       </c>
       <c r="AC33" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD33" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE33" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="AF33" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="AD33" s="18" t="s">
-        <v>804</v>
-      </c>
-      <c r="AE33" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="AF33" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="AG33" s="18" t="s">
         <v>203</v>
@@ -10395,49 +10574,49 @@
         <v>70</v>
       </c>
       <c r="AJ33" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="AN33" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="AO33" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="AP33" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="AQ33" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="AN33" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="AO33" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="AP33" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="AQ33" s="18" t="s">
-        <v>811</v>
       </c>
       <c r="AR33" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS33" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AT33" s="18" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AU33" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="15.75" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D34" s="19">
         <v>110</v>
@@ -10458,10 +10637,10 @@
         <v>20</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>109</v>
@@ -10470,10 +10649,10 @@
         <v>110</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="P34" s="18" t="s">
         <v>113</v>
@@ -10485,22 +10664,22 @@
         <v>115</v>
       </c>
       <c r="S34" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="T34" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="V34" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="T34" s="18" t="s">
+      <c r="W34" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="U34" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="V34" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="W34" s="22" t="s">
-        <v>826</v>
-      </c>
       <c r="X34" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y34" s="42" t="s">
         <v>63</v>
@@ -10515,16 +10694,16 @@
         <v>63</v>
       </c>
       <c r="AC34" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD34" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE34" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="AF34" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="AD34" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE34" s="18" t="s">
-        <v>828</v>
-      </c>
-      <c r="AF34" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="AG34" s="18" t="s">
         <v>203</v>
@@ -10536,49 +10715,49 @@
         <v>70</v>
       </c>
       <c r="AJ34" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK34" s="18" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="AN34" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="AO34" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="AP34" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="AN34" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO34" s="18" t="s">
-        <v>832</v>
-      </c>
-      <c r="AP34" s="18" t="s">
-        <v>833</v>
-      </c>
       <c r="AQ34" s="18" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AR34" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS34" s="18" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AT34" s="18" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AU34" s="18" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:47" ht="15.75" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D35" s="19">
         <v>60</v>
@@ -10599,10 +10778,10 @@
         <v>24</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>52</v>
@@ -10611,13 +10790,13 @@
         <v>53</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q35" s="18" t="s">
         <v>56</v>
@@ -10626,22 +10805,22 @@
         <v>57</v>
       </c>
       <c r="S35" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="T35" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="V35" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="T35" s="18" t="s">
+      <c r="W35" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>846</v>
-      </c>
-      <c r="W35" s="22" t="s">
-        <v>847</v>
-      </c>
       <c r="X35" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y35" s="42" t="s">
         <v>63</v>
@@ -10656,13 +10835,13 @@
         <v>63</v>
       </c>
       <c r="AC35" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AD35" s="18" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AE35" s="18" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AF35" s="18" t="s">
         <v>179</v>
@@ -10677,49 +10856,49 @@
         <v>70</v>
       </c>
       <c r="AJ35" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK35" s="18" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AN35" s="18" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AO35" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="AP35" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="AQ35" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="AR35" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS35" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="AP35" s="18" t="s">
+      <c r="AT35" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="AQ35" s="18" t="s">
+      <c r="AU35" s="18" t="s">
         <v>854</v>
-      </c>
-      <c r="AR35" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS35" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="AT35" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="AU35" s="18" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="15.75" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D36" s="19">
         <v>80</v>
@@ -10740,10 +10919,10 @@
         <v>26</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L36" s="18" t="s">
         <v>52</v>
@@ -10752,13 +10931,13 @@
         <v>53</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q36" s="18" t="s">
         <v>56</v>
@@ -10767,22 +10946,22 @@
         <v>57</v>
       </c>
       <c r="S36" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="T36" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="V36" s="21" t="s">
         <v>865</v>
       </c>
-      <c r="T36" s="18" t="s">
+      <c r="W36" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="U36" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>868</v>
-      </c>
-      <c r="W36" s="22" t="s">
-        <v>869</v>
-      </c>
       <c r="X36" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y36" s="42" t="s">
         <v>63</v>
@@ -10797,13 +10976,13 @@
         <v>63</v>
       </c>
       <c r="AC36" s="18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AD36" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AF36" s="18" t="s">
         <v>122</v>
@@ -10818,49 +10997,49 @@
         <v>70</v>
       </c>
       <c r="AJ36" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK36" s="18" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="AN36" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="AO36" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="AP36" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ36" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="AN36" s="18" t="s">
+      <c r="AR36" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS36" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="AT36" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="AO36" s="18" t="s">
+      <c r="AU36" s="18" t="s">
         <v>876</v>
-      </c>
-      <c r="AP36" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="AQ36" s="18" t="s">
-        <v>877</v>
-      </c>
-      <c r="AR36" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS36" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="AT36" s="18" t="s">
-        <v>878</v>
-      </c>
-      <c r="AU36" s="18" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="37" spans="1:47" ht="15.75" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D37" s="19">
         <v>90</v>
@@ -10881,10 +11060,10 @@
         <v>22</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>142</v>
@@ -10893,13 +11072,13 @@
         <v>143</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="18" t="s">
         <v>114</v>
@@ -10908,22 +11087,22 @@
         <v>115</v>
       </c>
       <c r="S37" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="T37" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="U37" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="V37" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="T37" s="18" t="s">
+      <c r="W37" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="U37" s="18" t="s">
-        <v>889</v>
-      </c>
-      <c r="V37" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="W37" s="22" t="s">
-        <v>891</v>
-      </c>
       <c r="X37" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y37" s="42" t="s">
         <v>63</v>
@@ -10938,13 +11117,13 @@
         <v>63</v>
       </c>
       <c r="AC37" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AF37" s="18" t="s">
         <v>153</v>
@@ -10959,49 +11138,49 @@
         <v>70</v>
       </c>
       <c r="AJ37" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="AL37" s="18"/>
       <c r="AM37" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="AN37" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="AO37" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="AP37" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="AQ37" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="AN37" s="18" t="s">
-        <v>883</v>
-      </c>
-      <c r="AO37" s="18" t="s">
+      <c r="AR37" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS37" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="AT37" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="AP37" s="18" t="s">
+      <c r="AU37" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="AQ37" s="18" t="s">
-        <v>898</v>
-      </c>
-      <c r="AR37" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS37" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="AT37" s="18" t="s">
-        <v>899</v>
-      </c>
-      <c r="AU37" s="18" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:47" ht="15.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D38" s="19">
         <v>90</v>
@@ -11022,10 +11201,10 @@
         <v>19</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>109</v>
@@ -11034,10 +11213,10 @@
         <v>110</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>270</v>
@@ -11049,22 +11228,22 @@
         <v>57</v>
       </c>
       <c r="S38" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="V38" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="T38" s="18" t="s">
+      <c r="W38" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="V38" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="W38" s="22" t="s">
-        <v>912</v>
-      </c>
       <c r="X38" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y38" s="42" t="s">
         <v>63</v>
@@ -11079,19 +11258,19 @@
         <v>63</v>
       </c>
       <c r="AC38" s="18" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AD38" s="18" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AE38" s="18" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AF38" s="18" t="s">
         <v>252</v>
       </c>
       <c r="AG38" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AH38" s="18" t="s">
         <v>69</v>
@@ -11100,49 +11279,49 @@
         <v>70</v>
       </c>
       <c r="AJ38" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK38" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AL38" s="18"/>
       <c r="AM38" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="AN38" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="AO38" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="AP38" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="AQ38" s="18" t="s">
         <v>917</v>
-      </c>
-      <c r="AN38" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="AO38" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="AP38" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="AQ38" s="18" t="s">
-        <v>920</v>
       </c>
       <c r="AR38" s="18" t="s">
         <v>283</v>
       </c>
       <c r="AS38" s="18" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="AT38" s="18" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AU38" s="18" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:47" ht="15.75" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D39" s="19">
         <v>110</v>
@@ -11163,10 +11342,10 @@
         <v>2</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>52</v>
@@ -11175,13 +11354,13 @@
         <v>53</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="P39" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>56</v>
@@ -11190,22 +11369,22 @@
         <v>57</v>
       </c>
       <c r="S39" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="T39" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="U39" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="V39" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="T39" s="18" t="s">
+      <c r="W39" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="U39" s="18" t="s">
-        <v>933</v>
-      </c>
-      <c r="V39" s="21" t="s">
-        <v>934</v>
-      </c>
-      <c r="W39" s="22" t="s">
-        <v>935</v>
-      </c>
       <c r="X39" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Y39" s="42" t="s">
         <v>63</v>
@@ -11220,16 +11399,16 @@
         <v>63</v>
       </c>
       <c r="AC39" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="AD39" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE39" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="AF39" s="18" t="s">
         <v>936</v>
-      </c>
-      <c r="AD39" s="18" t="s">
-        <v>937</v>
-      </c>
-      <c r="AE39" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="AF39" s="18" t="s">
-        <v>939</v>
       </c>
       <c r="AG39" s="18" t="s">
         <v>123</v>
@@ -11241,49 +11420,49 @@
         <v>70</v>
       </c>
       <c r="AJ39" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK39" s="18" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="AL39" s="18"/>
       <c r="AM39" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="AN39" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="AO39" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="AP39" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="AN39" s="18" t="s">
+      <c r="AQ39" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="AO39" s="18" t="s">
+      <c r="AR39" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS39" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="AP39" s="18" t="s">
+      <c r="AT39" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="AQ39" s="18" t="s">
+      <c r="AU39" s="18" t="s">
         <v>945</v>
-      </c>
-      <c r="AR39" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS39" s="18" t="s">
-        <v>946</v>
-      </c>
-      <c r="AT39" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="AU39" s="18" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="40" spans="1:47" ht="15.75" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D40" s="19">
         <v>90</v>
@@ -11304,10 +11483,10 @@
         <v>18</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>142</v>
@@ -11316,13 +11495,13 @@
         <v>143</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q40" s="18" t="s">
         <v>114</v>
@@ -11331,22 +11510,22 @@
         <v>115</v>
       </c>
       <c r="S40" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="V40" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="T40" s="18" t="s">
+      <c r="W40" s="22" t="s">
         <v>957</v>
       </c>
-      <c r="U40" s="18" t="s">
+      <c r="X40" s="43" t="s">
         <v>958</v>
-      </c>
-      <c r="V40" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="W40" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="X40" s="43" t="s">
-        <v>961</v>
       </c>
       <c r="Y40" s="44" t="s">
         <v>63</v>
@@ -11361,19 +11540,19 @@
         <v>62</v>
       </c>
       <c r="AC40" s="18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="AD40" s="18" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AE40" s="18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AF40" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AG40" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH40" s="18" t="s">
         <v>69</v>
@@ -11385,46 +11564,46 @@
         <v>71</v>
       </c>
       <c r="AK40" s="22" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="AL40" s="18"/>
       <c r="AM40" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="AN40" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO40" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="AP40" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="AQ40" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="AN40" s="18" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO40" s="18" t="s">
+      <c r="AR40" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS40" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="AP40" s="18" t="s">
+      <c r="AT40" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="AQ40" s="18" t="s">
+      <c r="AU40" s="18" t="s">
         <v>969</v>
-      </c>
-      <c r="AR40" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS40" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="AT40" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="AU40" s="18" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:47" ht="15.75" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D41" s="19">
         <v>80</v>
@@ -11445,10 +11624,10 @@
         <v>13</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>109</v>
@@ -11457,10 +11636,10 @@
         <v>110</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="P41" s="18" t="s">
         <v>171</v>
@@ -11472,22 +11651,22 @@
         <v>57</v>
       </c>
       <c r="S41" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="V41" s="21" t="s">
         <v>980</v>
       </c>
-      <c r="T41" s="18" t="s">
+      <c r="W41" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="V41" s="21" t="s">
-        <v>983</v>
-      </c>
-      <c r="W41" s="22" t="s">
-        <v>984</v>
-      </c>
       <c r="X41" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y41" s="44" t="s">
         <v>63</v>
@@ -11502,70 +11681,70 @@
         <v>62</v>
       </c>
       <c r="AC41" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="AD41" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="AE41" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="AF41" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="AD41" s="18" t="s">
+      <c r="AG41" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="AE41" s="18" t="s">
+      <c r="AH41" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="AF41" s="18" t="s">
+      <c r="AI41" s="22" t="s">
         <v>988</v>
-      </c>
-      <c r="AG41" s="18" t="s">
-        <v>989</v>
-      </c>
-      <c r="AH41" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="AI41" s="22" t="s">
-        <v>991</v>
       </c>
       <c r="AJ41" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AL41" s="18"/>
       <c r="AM41" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="AN41" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AO41" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="AP41" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="AQ41" s="18" t="s">
         <v>993</v>
-      </c>
-      <c r="AN41" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="AO41" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AP41" s="18" t="s">
-        <v>978</v>
-      </c>
-      <c r="AQ41" s="18" t="s">
-        <v>996</v>
       </c>
       <c r="AR41" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS41" s="18" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="AT41" s="18" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AU41" s="18" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:47" ht="15.75" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D42" s="19">
         <v>90</v>
@@ -11586,10 +11765,10 @@
         <v>21</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>52</v>
@@ -11598,13 +11777,13 @@
         <v>53</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q42" s="18" t="s">
         <v>56</v>
@@ -11613,22 +11792,22 @@
         <v>57</v>
       </c>
       <c r="S42" s="18" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="T42" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V42" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W42" s="22" t="s">
         <v>1007</v>
       </c>
-      <c r="U42" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="V42" s="18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="W42" s="22" t="s">
-        <v>1010</v>
-      </c>
       <c r="X42" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y42" s="44" t="s">
         <v>63</v>
@@ -11643,70 +11822,70 @@
         <v>62</v>
       </c>
       <c r="AC42" s="18" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AD42" s="18" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AE42" s="18" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="AF42" s="18" t="s">
         <v>153</v>
       </c>
       <c r="AG42" s="18" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="AH42" s="18" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AI42" s="22" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AJ42" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AL42" s="18"/>
       <c r="AM42" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AN42" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AO42" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AP42" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AQ42" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="AN42" s="18" t="s">
+      <c r="AR42" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS42" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="AT42" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="AO42" s="18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AP42" s="18" t="s">
+      <c r="AU42" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="AQ42" s="18" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AR42" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS42" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AT42" s="18" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AU42" s="18" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="43" spans="1:47" ht="15.75" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D43" s="19">
         <v>100</v>
@@ -11727,10 +11906,10 @@
         <v>26</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>52</v>
@@ -11739,13 +11918,13 @@
         <v>53</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="O43" s="18" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q43" s="18" t="s">
         <v>114</v>
@@ -11754,22 +11933,22 @@
         <v>115</v>
       </c>
       <c r="S43" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="T43" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="U43" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V43" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="T43" s="18" t="s">
+      <c r="W43" s="22" t="s">
         <v>1031</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="V43" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="W43" s="22" t="s">
-        <v>1034</v>
-      </c>
       <c r="X43" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y43" s="44" t="s">
         <v>63</v>
@@ -11784,70 +11963,70 @@
         <v>62</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AE43" s="18" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AF43" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AG43" s="18" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AH43" s="18" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AI43" s="22" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AJ43" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK43" s="22" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="AL43" s="18"/>
       <c r="AM43" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AN43" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AO43" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AP43" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="AN43" s="18" t="s">
+      <c r="AQ43" s="18" t="s">
         <v>1043</v>
       </c>
-      <c r="AO43" s="18" t="s">
+      <c r="AR43" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS43" s="18" t="s">
         <v>1044</v>
       </c>
-      <c r="AP43" s="18" t="s">
+      <c r="AT43" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="AQ43" s="18" t="s">
+      <c r="AU43" s="18" t="s">
         <v>1046</v>
-      </c>
-      <c r="AR43" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS43" s="18" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AT43" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AU43" s="18" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:47" ht="15.75" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D44" s="19">
         <v>120</v>
@@ -11868,10 +12047,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>109</v>
@@ -11880,10 +12059,10 @@
         <v>110</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>171</v>
@@ -11895,22 +12074,22 @@
         <v>57</v>
       </c>
       <c r="S44" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T44" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="V44" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="T44" s="18" t="s">
+      <c r="W44" s="22" t="s">
         <v>1057</v>
       </c>
-      <c r="U44" s="18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="V44" s="45" t="s">
-        <v>1059</v>
-      </c>
-      <c r="W44" s="22" t="s">
-        <v>1060</v>
-      </c>
       <c r="X44" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y44" s="44" t="s">
         <v>63</v>
@@ -11925,70 +12104,70 @@
         <v>62</v>
       </c>
       <c r="AC44" s="18" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AD44" s="18" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AF44" s="18" t="s">
         <v>203</v>
       </c>
       <c r="AG44" s="18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AH44" s="18" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AI44" s="22" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AJ44" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AL44" s="18"/>
       <c r="AM44" s="18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AN44" s="18" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AO44" s="18" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AP44" s="18" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AQ44" s="18" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="AR44" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS44" s="18" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AT44" s="18" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="AU44" s="18" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="45" spans="1:47" ht="15.75" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D45" s="19">
         <v>100</v>
@@ -12009,10 +12188,10 @@
         <v>22</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="L45" s="18" t="s">
         <v>52</v>
@@ -12021,13 +12200,13 @@
         <v>53</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q45" s="18" t="s">
         <v>56</v>
@@ -12036,22 +12215,22 @@
         <v>57</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="V45" s="21" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="W45" s="22" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="X45" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y45" s="44" t="s">
         <v>63</v>
@@ -12066,70 +12245,70 @@
         <v>62</v>
       </c>
       <c r="AC45" s="18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AD45" s="18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AE45" s="18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AF45" s="18" t="s">
         <v>1084</v>
-      </c>
-      <c r="AD45" s="18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AF45" s="18" t="s">
-        <v>1087</v>
       </c>
       <c r="AG45" s="18" t="s">
         <v>228</v>
       </c>
       <c r="AH45" s="18" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AI45" s="22" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AJ45" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK45" s="22" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AL45" s="18"/>
       <c r="AM45" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AN45" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO45" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AP45" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AQ45" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AR45" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS45" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="AN45" s="18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AO45" s="18" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AP45" s="18" t="s">
+      <c r="AT45" s="18" t="s">
         <v>1092</v>
       </c>
-      <c r="AQ45" s="18" t="s">
+      <c r="AU45" s="18" t="s">
         <v>1093</v>
-      </c>
-      <c r="AR45" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS45" s="18" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AT45" s="18" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AU45" s="18" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="46" spans="1:47" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D46" s="19">
         <v>110</v>
@@ -12150,10 +12329,10 @@
         <v>20</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L46" s="18" t="s">
         <v>142</v>
@@ -12162,10 +12341,10 @@
         <v>143</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>146</v>
@@ -12177,22 +12356,22 @@
         <v>115</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="X46" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y46" s="44" t="s">
         <v>63</v>
@@ -12207,70 +12386,70 @@
         <v>62</v>
       </c>
       <c r="AC46" s="18" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AD46" s="18" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AE46" s="18" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AF46" s="18" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AG46" s="18" t="s">
         <v>96</v>
       </c>
       <c r="AH46" s="18" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AI46" s="22" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AJ46" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK46" s="22" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AL46" s="18"/>
       <c r="AM46" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AN46" s="18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AO46" s="18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AP46" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AQ46" s="18" t="s">
         <v>1112</v>
-      </c>
-      <c r="AN46" s="18" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AO46" s="18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AP46" s="18" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AQ46" s="18" t="s">
-        <v>1115</v>
       </c>
       <c r="AR46" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS46" s="18" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AT46" s="18" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="AU46" s="18" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="47" spans="1:47" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D47" s="19">
         <v>130</v>
@@ -12291,10 +12470,10 @@
         <v>5</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>142</v>
@@ -12303,13 +12482,13 @@
         <v>143</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q47" s="18" t="s">
         <v>56</v>
@@ -12318,22 +12497,22 @@
         <v>57</v>
       </c>
       <c r="S47" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T47" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="V47" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W47" s="22" t="s">
         <v>1126</v>
       </c>
-      <c r="T47" s="18" t="s">
-        <v>1127</v>
-      </c>
-      <c r="U47" s="18" t="s">
-        <v>1613</v>
-      </c>
-      <c r="V47" s="18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="W47" s="22" t="s">
-        <v>1129</v>
-      </c>
       <c r="X47" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y47" s="44" t="s">
         <v>63</v>
@@ -12348,13 +12527,13 @@
         <v>62</v>
       </c>
       <c r="AC47" s="21" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AD47" s="21" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="AE47" s="18" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="AF47" s="18" t="s">
         <v>68</v>
@@ -12363,55 +12542,55 @@
         <v>152</v>
       </c>
       <c r="AH47" s="18" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AI47" s="22" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AJ47" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK47" s="46" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="AL47" s="21"/>
       <c r="AM47" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AN47" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AO47" s="18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AP47" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AQ47" s="18" t="s">
         <v>1135</v>
       </c>
-      <c r="AN47" s="18" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AO47" s="18" t="s">
+      <c r="AR47" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS47" s="18" t="s">
         <v>1136</v>
       </c>
-      <c r="AP47" s="18" t="s">
+      <c r="AT47" s="18" t="s">
         <v>1137</v>
       </c>
-      <c r="AQ47" s="18" t="s">
+      <c r="AU47" s="18" t="s">
         <v>1138</v>
-      </c>
-      <c r="AR47" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS47" s="18" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AT47" s="18" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AU47" s="18" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="48" spans="1:47" ht="15.75" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D48" s="19">
         <v>100</v>
@@ -12432,10 +12611,10 @@
         <v>17</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>109</v>
@@ -12444,10 +12623,10 @@
         <v>110</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="P48" s="18" t="s">
         <v>171</v>
@@ -12459,22 +12638,22 @@
         <v>57</v>
       </c>
       <c r="S48" s="18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="T48" s="18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="U48" s="18" t="s">
+        <v>1611</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="W48" s="22" t="s">
         <v>1149</v>
       </c>
-      <c r="T48" s="18" t="s">
-        <v>1150</v>
-      </c>
-      <c r="U48" s="18" t="s">
-        <v>1614</v>
-      </c>
-      <c r="V48" s="21" t="s">
-        <v>1151</v>
-      </c>
-      <c r="W48" s="22" t="s">
-        <v>1152</v>
-      </c>
       <c r="X48" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y48" s="44" t="s">
         <v>63</v>
@@ -12489,13 +12668,13 @@
         <v>62</v>
       </c>
       <c r="AC48" s="18" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="AD48" s="18" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AE48" s="18" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AF48" s="18" t="s">
         <v>251</v>
@@ -12504,55 +12683,55 @@
         <v>203</v>
       </c>
       <c r="AH48" s="18" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AI48" s="22" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AJ48" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="AL48" s="18"/>
       <c r="AM48" s="18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AN48" s="18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AO48" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP48" s="18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AQ48" s="18" t="s">
         <v>1158</v>
-      </c>
-      <c r="AN48" s="18" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AO48" s="18" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AP48" s="18" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AQ48" s="18" t="s">
-        <v>1161</v>
       </c>
       <c r="AR48" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS48" s="18" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="AT48" s="18" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AU48" s="18" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="49" spans="1:47" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D49" s="19">
         <v>90</v>
@@ -12573,10 +12752,10 @@
         <v>8</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>109</v>
@@ -12585,10 +12764,10 @@
         <v>110</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="P49" s="18" t="s">
         <v>113</v>
@@ -12600,22 +12779,22 @@
         <v>115</v>
       </c>
       <c r="S49" s="18" t="s">
+        <v>1169</v>
+      </c>
+      <c r="T49" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="U49" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="V49" s="21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W49" s="22" t="s">
         <v>1172</v>
       </c>
-      <c r="T49" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="U49" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V49" s="21" t="s">
-        <v>1174</v>
-      </c>
-      <c r="W49" s="22" t="s">
-        <v>1175</v>
-      </c>
       <c r="X49" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y49" s="44" t="s">
         <v>63</v>
@@ -12630,70 +12809,70 @@
         <v>62</v>
       </c>
       <c r="AC49" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AD49" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AE49" s="18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AF49" s="18" t="s">
         <v>1176</v>
       </c>
-      <c r="AD49" s="18" t="s">
+      <c r="AG49" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AH49" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AI49" s="22" t="s">
         <v>1177</v>
-      </c>
-      <c r="AE49" s="18" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AF49" s="18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AG49" s="18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AH49" s="18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AI49" s="22" t="s">
-        <v>1180</v>
       </c>
       <c r="AJ49" s="47" t="s">
         <v>71</v>
       </c>
       <c r="AK49" s="22" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="AL49" s="18"/>
       <c r="AM49" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AN49" s="18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AO49" s="18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AP49" s="18" t="s">
         <v>1182</v>
       </c>
-      <c r="AN49" s="18" t="s">
+      <c r="AQ49" s="18" t="s">
         <v>1183</v>
-      </c>
-      <c r="AO49" s="18" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AP49" s="18" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AQ49" s="18" t="s">
-        <v>1186</v>
       </c>
       <c r="AR49" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS49" s="18" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="AT49" s="18" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AU49" s="18" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:47" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D50" s="19">
         <v>90</v>
@@ -12714,10 +12893,10 @@
         <v>11</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>52</v>
@@ -12726,13 +12905,13 @@
         <v>53</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q50" s="18" t="s">
         <v>56</v>
@@ -12741,22 +12920,22 @@
         <v>57</v>
       </c>
       <c r="S50" s="18" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U50" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V50" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="W50" s="22" t="s">
         <v>1197</v>
       </c>
-      <c r="T50" s="18" t="s">
-        <v>1198</v>
-      </c>
-      <c r="U50" s="18" t="s">
-        <v>1615</v>
-      </c>
-      <c r="V50" s="18" t="s">
-        <v>1199</v>
-      </c>
-      <c r="W50" s="22" t="s">
-        <v>1200</v>
-      </c>
       <c r="X50" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y50" s="44" t="s">
         <v>63</v>
@@ -12771,70 +12950,70 @@
         <v>62</v>
       </c>
       <c r="AC50" s="18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AD50" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AE50" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AF50" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AG50" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AH50" s="18" t="s">
         <v>1201</v>
       </c>
-      <c r="AD50" s="18" t="s">
+      <c r="AI50" s="22" t="s">
         <v>1202</v>
-      </c>
-      <c r="AE50" s="18" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AF50" s="18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AG50" s="18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AH50" s="18" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AI50" s="22" t="s">
-        <v>1205</v>
       </c>
       <c r="AJ50" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK50" s="22" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AL50" s="18"/>
       <c r="AM50" s="18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AN50" s="18" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AO50" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AP50" s="18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AQ50" s="18" t="s">
         <v>1206</v>
       </c>
-      <c r="AN50" s="18" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AO50" s="18" t="s">
+      <c r="AR50" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS50" s="18" t="s">
         <v>1207</v>
       </c>
-      <c r="AP50" s="18" t="s">
+      <c r="AT50" s="18" t="s">
         <v>1208</v>
       </c>
-      <c r="AQ50" s="18" t="s">
+      <c r="AU50" s="18" t="s">
         <v>1209</v>
-      </c>
-      <c r="AR50" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS50" s="18" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AT50" s="18" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AU50" s="18" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="51" spans="1:47" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D51" s="18">
         <v>120</v>
@@ -12855,10 +13034,10 @@
         <v>5</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>109</v>
@@ -12867,10 +13046,10 @@
         <v>110</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="P51" s="18" t="s">
         <v>171</v>
@@ -12882,22 +13061,22 @@
         <v>115</v>
       </c>
       <c r="S51" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U51" s="18" t="s">
+        <v>1613</v>
+      </c>
+      <c r="V51" s="21" t="s">
+        <v>1641</v>
+      </c>
+      <c r="W51" s="22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X51" s="23" t="s">
         <v>1220</v>
-      </c>
-      <c r="T51" s="18" t="s">
-        <v>1221</v>
-      </c>
-      <c r="U51" s="18" t="s">
-        <v>1616</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>1644</v>
-      </c>
-      <c r="W51" s="22" t="s">
-        <v>1222</v>
-      </c>
-      <c r="X51" s="23" t="s">
-        <v>1223</v>
       </c>
       <c r="Y51" s="24" t="s">
         <v>63</v>
@@ -12912,13 +13091,13 @@
         <v>63</v>
       </c>
       <c r="AC51" s="18" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="AD51" s="18" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="AE51" s="18" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="AF51" s="18" t="s">
         <v>203</v>
@@ -12927,53 +13106,53 @@
         <v>123</v>
       </c>
       <c r="AH51" s="18" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="AI51" s="22" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="AJ51" s="48" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="AK51" s="18"/>
       <c r="AL51" s="18"/>
       <c r="AM51" s="18" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AN51" s="18" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="AO51" s="18" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="AP51" s="18" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="AQ51" s="18" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="AR51" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS51" s="18" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="AT51" s="18" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="AU51" s="18" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="52" spans="1:47" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D52" s="18">
         <v>250</v>
@@ -12994,10 +13173,10 @@
         <v>110</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>109</v>
@@ -13006,13 +13185,13 @@
         <v>110</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="Q52" s="18" t="s">
         <v>56</v>
@@ -13021,22 +13200,22 @@
         <v>57</v>
       </c>
       <c r="S52" s="18" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="T52" s="18" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="V52" s="21" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="X52" s="23" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="Y52" s="24" t="s">
         <v>63</v>
@@ -13051,68 +13230,68 @@
         <v>63</v>
       </c>
       <c r="AC52" s="18" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AD52" s="18" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="AE52" s="18" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AF52" s="18" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="AG52" s="18" t="s">
         <v>228</v>
       </c>
       <c r="AH52" s="18" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="AI52" s="22" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="AJ52" s="48" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="AK52" s="18"/>
       <c r="AL52" s="18"/>
       <c r="AM52" s="18" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="AN52" s="18" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="AO52" s="18" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="AP52" s="18" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="AQ52" s="18" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AR52" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS52" s="18" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AT52" s="18" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AU52" s="18" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="53" spans="1:47" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D53" s="18">
         <v>120</v>
@@ -13133,10 +13312,10 @@
         <v>30</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>109</v>
@@ -13145,10 +13324,10 @@
         <v>110</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="P53" s="18" t="s">
         <v>113</v>
@@ -13160,22 +13339,22 @@
         <v>115</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="W53" s="22" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="X53" s="23" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="Y53" s="24" t="s">
         <v>63</v>
@@ -13190,68 +13369,68 @@
         <v>63</v>
       </c>
       <c r="AC53" s="18" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AD53" s="18" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AE53" s="18" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="AF53" s="18" t="s">
         <v>122</v>
       </c>
       <c r="AG53" s="18" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AH53" s="18" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AI53" s="22" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AJ53" s="48" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="AK53" s="18"/>
       <c r="AL53" s="18"/>
       <c r="AM53" s="18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AN53" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AO53" s="18" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AP53" s="18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AQ53" s="18" t="s">
         <v>1272</v>
-      </c>
-      <c r="AN53" s="18" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AO53" s="18" t="s">
-        <v>1273</v>
-      </c>
-      <c r="AP53" s="18" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AQ53" s="18" t="s">
-        <v>1275</v>
       </c>
       <c r="AR53" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS53" s="18" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="AT53" s="18" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AU53" s="18" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="54" spans="1:47" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D54" s="18">
         <v>500</v>
@@ -13272,10 +13451,10 @@
         <v>100</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>142</v>
@@ -13284,13 +13463,13 @@
         <v>143</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q54" s="18" t="s">
         <v>114</v>
@@ -13299,22 +13478,22 @@
         <v>115</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="T54" s="18" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="U54" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="V54" s="18" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="X54" s="49" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Y54" s="50" t="s">
         <v>63</v>
@@ -13329,10 +13508,10 @@
         <v>63</v>
       </c>
       <c r="AC54" s="18" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="AD54" s="18" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="AE54" s="18" t="s">
         <v>63</v>
@@ -13344,57 +13523,57 @@
         <v>63</v>
       </c>
       <c r="AH54" s="18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AI54" s="22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AJ54" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AK54" s="22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AL54" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="AI54" s="22" t="s">
+      <c r="AM54" s="18" t="s">
         <v>1291</v>
       </c>
-      <c r="AJ54" s="18" t="s">
+      <c r="AN54" s="18" t="s">
         <v>1292</v>
       </c>
-      <c r="AK54" s="22" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AL54" s="22" t="s">
+      <c r="AO54" s="18" t="s">
         <v>1293</v>
       </c>
-      <c r="AM54" s="18" t="s">
+      <c r="AP54" s="18" t="s">
         <v>1294</v>
       </c>
-      <c r="AN54" s="18" t="s">
+      <c r="AQ54" s="18" t="s">
         <v>1295</v>
       </c>
-      <c r="AO54" s="18" t="s">
+      <c r="AR54" s="20" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS54" s="18" t="s">
         <v>1296</v>
       </c>
-      <c r="AP54" s="18" t="s">
+      <c r="AT54" s="18" t="s">
         <v>1297</v>
       </c>
-      <c r="AQ54" s="18" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AR54" s="20" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS54" s="18" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AT54" s="18" t="s">
-        <v>1300</v>
-      </c>
       <c r="AU54" s="18" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:47" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D55" s="18">
         <v>90</v>
@@ -13415,10 +13594,10 @@
         <v>15</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>109</v>
@@ -13427,10 +13606,10 @@
         <v>110</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="P55" s="18" t="s">
         <v>113</v>
@@ -13442,22 +13621,22 @@
         <v>115</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="T55" s="18" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="W55" s="22" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="X55" s="49" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Y55" s="50" t="s">
         <v>63</v>
@@ -13472,13 +13651,13 @@
         <v>63</v>
       </c>
       <c r="AC55" s="18" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="AD55" s="18" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="AE55" s="18" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AF55" s="18" t="s">
         <v>63</v>
@@ -13487,57 +13666,57 @@
         <v>63</v>
       </c>
       <c r="AH55" s="18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AI55" s="22" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AK55" s="22" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AL55" s="22" t="s">
         <v>1311</v>
       </c>
-      <c r="AI55" s="22" t="s">
+      <c r="AM55" s="18" t="s">
         <v>1312</v>
       </c>
-      <c r="AJ55" s="18" t="s">
+      <c r="AN55" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="AK55" s="22" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AL55" s="22" t="s">
+      <c r="AO55" s="18" t="s">
         <v>1314</v>
       </c>
-      <c r="AM55" s="18" t="s">
+      <c r="AP55" s="18" t="s">
         <v>1315</v>
       </c>
-      <c r="AN55" s="18" t="s">
+      <c r="AQ55" s="18" t="s">
         <v>1316</v>
-      </c>
-      <c r="AO55" s="18" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AP55" s="18" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AQ55" s="18" t="s">
-        <v>1319</v>
       </c>
       <c r="AR55" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS55" s="18" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="AT55" s="18" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="AU55" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:47" ht="15.75" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D56" s="18">
         <v>120</v>
@@ -13558,10 +13737,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>142</v>
@@ -13570,10 +13749,10 @@
         <v>143</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="P56" s="18" t="s">
         <v>146</v>
@@ -13585,22 +13764,22 @@
         <v>115</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="T56" s="18" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="U56" s="20" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="W56" s="22" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="X56" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y56" s="52" t="s">
         <v>63</v>
@@ -13615,13 +13794,13 @@
         <v>63</v>
       </c>
       <c r="AC56" s="18" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="AD56" s="18" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="AE56" s="18" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="AF56" s="18" t="s">
         <v>63</v>
@@ -13630,55 +13809,55 @@
         <v>63</v>
       </c>
       <c r="AH56" s="18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AI56" s="22" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AK56" s="22" t="s">
         <v>1334</v>
-      </c>
-      <c r="AI56" s="22" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AJ56" s="18" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AK56" s="22" t="s">
-        <v>1337</v>
       </c>
       <c r="AL56" s="20"/>
       <c r="AM56" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AN56" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AO56" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AP56" s="18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AQ56" s="18" t="s">
         <v>1338</v>
-      </c>
-      <c r="AN56" s="18" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AO56" s="18" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AP56" s="18" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AQ56" s="18" t="s">
-        <v>1341</v>
       </c>
       <c r="AR56" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS56" s="18" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="AT56" s="18" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="AU56" s="18" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="57" spans="1:47" ht="15.75" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D57" s="18">
         <v>110</v>
@@ -13699,10 +13878,10 @@
         <v>40</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>52</v>
@@ -13711,13 +13890,13 @@
         <v>53</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="P57" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q57" s="18" t="s">
         <v>56</v>
@@ -13726,22 +13905,22 @@
         <v>57</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="X57" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y57" s="52" t="s">
         <v>63</v>
@@ -13756,13 +13935,13 @@
         <v>63</v>
       </c>
       <c r="AC57" s="18" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="AD57" s="18" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="AE57" s="18" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="AF57" s="18" t="s">
         <v>63</v>
@@ -13771,55 +13950,55 @@
         <v>63</v>
       </c>
       <c r="AH57" s="18" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="AI57" s="22" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK57" s="22" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="AL57" s="20"/>
       <c r="AM57" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AN57" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AO57" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AP57" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AQ57" s="18" t="s">
         <v>1357</v>
       </c>
-      <c r="AN57" s="18" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AO57" s="18" t="s">
+      <c r="AR57" s="20" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS57" s="18" t="s">
         <v>1358</v>
       </c>
-      <c r="AP57" s="18" t="s">
+      <c r="AT57" s="18" t="s">
         <v>1359</v>
       </c>
-      <c r="AQ57" s="18" t="s">
+      <c r="AU57" s="18" t="s">
         <v>1360</v>
-      </c>
-      <c r="AR57" s="20" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS57" s="18" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AT57" s="18" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AU57" s="18" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="58" spans="1:47" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D58" s="18">
         <v>130</v>
@@ -13840,10 +14019,10 @@
         <v>50</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>109</v>
@@ -13852,10 +14031,10 @@
         <v>110</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="P58" s="18" t="s">
         <v>171</v>
@@ -13867,22 +14046,22 @@
         <v>57</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="T58" s="18" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="U58" s="26" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="V58" s="18" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="X58" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y58" s="52" t="s">
         <v>63</v>
@@ -13897,13 +14076,13 @@
         <v>63</v>
       </c>
       <c r="AC58" s="18" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="AD58" s="18" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="AE58" s="18" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="AF58" s="18" t="s">
         <v>63</v>
@@ -13912,55 +14091,55 @@
         <v>63</v>
       </c>
       <c r="AH58" s="18" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="AI58" s="22" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK58" s="22" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="AL58" s="26"/>
       <c r="AM58" s="18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AN58" s="18" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AO58" s="18" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AP58" s="18" t="s">
         <v>1376</v>
       </c>
-      <c r="AN58" s="18" t="s">
+      <c r="AQ58" s="18" t="s">
         <v>1377</v>
-      </c>
-      <c r="AO58" s="18" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AP58" s="18" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AQ58" s="18" t="s">
-        <v>1380</v>
       </c>
       <c r="AR58" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS58" s="18" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="AT58" s="18" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="AU58" s="18" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="59" spans="1:47" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D59" s="18">
         <v>180</v>
@@ -13981,10 +14160,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>109</v>
@@ -13993,10 +14172,10 @@
         <v>110</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="P59" s="18" t="s">
         <v>113</v>
@@ -14008,22 +14187,22 @@
         <v>57</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="W59" s="22" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="X59" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y59" s="52" t="s">
         <v>63</v>
@@ -14038,13 +14217,13 @@
         <v>63</v>
       </c>
       <c r="AC59" s="18" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="AD59" s="18" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="AE59" s="18" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="AF59" s="18" t="s">
         <v>63</v>
@@ -14053,55 +14232,55 @@
         <v>63</v>
       </c>
       <c r="AH59" s="18" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="AI59" s="22" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK59" s="22" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="AL59" s="26"/>
       <c r="AM59" s="18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AN59" s="18" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AO59" s="18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AP59" s="18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AQ59" s="18" t="s">
         <v>1396</v>
-      </c>
-      <c r="AN59" s="18" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AO59" s="18" t="s">
-        <v>1397</v>
-      </c>
-      <c r="AP59" s="18" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AQ59" s="18" t="s">
-        <v>1399</v>
       </c>
       <c r="AR59" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS59" s="18" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="AT59" s="18" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="AU59" s="18" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="60" spans="1:47" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D60" s="18">
         <v>140</v>
@@ -14122,10 +14301,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="L60" s="21" t="s">
         <v>142</v>
@@ -14134,13 +14313,13 @@
         <v>143</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q60" s="18" t="s">
         <v>114</v>
@@ -14149,22 +14328,22 @@
         <v>115</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="T60" s="18" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="U60" s="26" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="V60" s="18" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="W60" s="22" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="X60" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y60" s="52" t="s">
         <v>63</v>
@@ -14179,13 +14358,13 @@
         <v>63</v>
       </c>
       <c r="AC60" s="18" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="AD60" s="18" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="AE60" s="18" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AF60" s="18" t="s">
         <v>63</v>
@@ -14194,49 +14373,49 @@
         <v>63</v>
       </c>
       <c r="AH60" s="18" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="AI60" s="22" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AJ60" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK60" s="22" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AL60" s="26"/>
       <c r="AM60" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AN60" s="18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AO60" s="18" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AP60" s="18" t="s">
         <v>1415</v>
       </c>
-      <c r="AN60" s="18" t="s">
+      <c r="AQ60" s="18" t="s">
         <v>1416</v>
       </c>
-      <c r="AO60" s="18" t="s">
+      <c r="AR60" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS60" s="18" t="s">
         <v>1417</v>
       </c>
-      <c r="AP60" s="18" t="s">
+      <c r="AT60" s="18" t="s">
         <v>1418</v>
       </c>
-      <c r="AQ60" s="18" t="s">
+      <c r="AU60" s="18" t="s">
         <v>1419</v>
-      </c>
-      <c r="AR60" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS60" s="18" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AT60" s="18" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AU60" s="18" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="61" spans="1:47" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>311</v>
@@ -14263,10 +14442,10 @@
         <v>6</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>52</v>
@@ -14275,13 +14454,13 @@
         <v>53</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="P61" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q61" s="18" t="s">
         <v>114</v>
@@ -14290,22 +14469,22 @@
         <v>115</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="U61" s="26" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="V61" s="18" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="X61" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y61" s="52" t="s">
         <v>63</v>
@@ -14320,10 +14499,10 @@
         <v>63</v>
       </c>
       <c r="AC61" s="18" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="AD61" s="18" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AE61" s="18" t="s">
         <v>63</v>
@@ -14335,55 +14514,55 @@
         <v>63</v>
       </c>
       <c r="AH61" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI61" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ61" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK61" s="22" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AL61" s="26"/>
       <c r="AM61" s="18" t="s">
         <v>325</v>
       </c>
       <c r="AN61" s="18" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AO61" s="18" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AP61" s="18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AQ61" s="18" t="s">
         <v>1434</v>
       </c>
-      <c r="AO61" s="18" t="s">
+      <c r="AR61" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS61" s="18" t="s">
         <v>1435</v>
       </c>
-      <c r="AP61" s="18" t="s">
+      <c r="AT61" s="18" t="s">
         <v>1436</v>
       </c>
-      <c r="AQ61" s="18" t="s">
+      <c r="AU61" s="18" t="s">
         <v>1437</v>
-      </c>
-      <c r="AR61" s="26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS61" s="18" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AT61" s="18" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AU61" s="18" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:47" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D62" s="18">
         <v>130</v>
@@ -14404,10 +14583,10 @@
         <v>15</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>142</v>
@@ -14416,10 +14595,10 @@
         <v>143</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="P62" s="18" t="s">
         <v>146</v>
@@ -14431,22 +14610,22 @@
         <v>57</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="U62" s="26" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="V62" s="18" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="X62" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y62" s="52" t="s">
         <v>63</v>
@@ -14464,7 +14643,7 @@
         <v>63</v>
       </c>
       <c r="AD62" s="18" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="AE62" s="18" t="s">
         <v>63</v>
@@ -14476,55 +14655,55 @@
         <v>63</v>
       </c>
       <c r="AH62" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI62" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ62" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK62" s="22" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="AL62" s="26"/>
       <c r="AM62" s="18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AN62" s="18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AO62" s="18" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AP62" s="18" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AQ62" s="18" t="s">
         <v>1451</v>
-      </c>
-      <c r="AN62" s="18" t="s">
-        <v>1452</v>
-      </c>
-      <c r="AO62" s="18" t="s">
-        <v>1453</v>
-      </c>
-      <c r="AP62" s="18" t="s">
-        <v>1445</v>
-      </c>
-      <c r="AQ62" s="18" t="s">
-        <v>1454</v>
       </c>
       <c r="AR62" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS62" s="18" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="AT62" s="18" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="AU62" s="18" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="63" spans="1:47" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D63" s="18">
         <v>100</v>
@@ -14545,10 +14724,10 @@
         <v>30</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="L63" s="21" t="s">
         <v>52</v>
@@ -14557,13 +14736,13 @@
         <v>53</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="P63" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q63" s="18" t="s">
         <v>114</v>
@@ -14572,22 +14751,22 @@
         <v>115</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="U63" s="26" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="V63" s="18" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="X63" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y63" s="52" t="s">
         <v>63</v>
@@ -14602,10 +14781,10 @@
         <v>63</v>
       </c>
       <c r="AC63" s="18" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AD63" s="18" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="AE63" s="18" t="s">
         <v>63</v>
@@ -14617,55 +14796,55 @@
         <v>63</v>
       </c>
       <c r="AH63" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI63" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ63" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK63" s="22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AL63" s="26"/>
       <c r="AM63" s="18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AN63" s="18" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AO63" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AP63" s="18" t="s">
         <v>1468</v>
       </c>
-      <c r="AN63" s="18" t="s">
+      <c r="AQ63" s="18" t="s">
         <v>1469</v>
       </c>
-      <c r="AO63" s="18" t="s">
+      <c r="AR63" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS63" s="18" t="s">
         <v>1470</v>
       </c>
-      <c r="AP63" s="18" t="s">
+      <c r="AT63" s="18" t="s">
         <v>1471</v>
       </c>
-      <c r="AQ63" s="18" t="s">
-        <v>1472</v>
-      </c>
-      <c r="AR63" s="26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS63" s="18" t="s">
-        <v>1473</v>
-      </c>
-      <c r="AT63" s="18" t="s">
-        <v>1474</v>
-      </c>
       <c r="AU63" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="64" spans="1:47" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D64" s="18">
         <v>90</v>
@@ -14686,10 +14865,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="L64" s="21" t="s">
         <v>52</v>
@@ -14698,13 +14877,13 @@
         <v>53</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="P64" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q64" s="18" t="s">
         <v>56</v>
@@ -14713,22 +14892,22 @@
         <v>57</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="U64" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="V64" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="V64" s="18" t="s">
-        <v>435</v>
-      </c>
       <c r="W64" s="22" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="X64" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y64" s="52" t="s">
         <v>63</v>
@@ -14743,10 +14922,10 @@
         <v>63</v>
       </c>
       <c r="AC64" s="18" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AD64" s="18" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="AE64" s="18" t="s">
         <v>63</v>
@@ -14758,55 +14937,55 @@
         <v>63</v>
       </c>
       <c r="AH64" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI64" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ64" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK64" s="22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AL64" s="26"/>
       <c r="AM64" s="18" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AN64" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AO64" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AP64" s="18" t="s">
         <v>1484</v>
       </c>
-      <c r="AN64" s="18" t="s">
+      <c r="AQ64" s="18" t="s">
         <v>1485</v>
       </c>
-      <c r="AO64" s="18" t="s">
+      <c r="AR64" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS64" s="18" t="s">
         <v>1486</v>
       </c>
-      <c r="AP64" s="18" t="s">
+      <c r="AT64" s="18" t="s">
         <v>1487</v>
       </c>
-      <c r="AQ64" s="18" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AR64" s="26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS64" s="18" t="s">
-        <v>1489</v>
-      </c>
-      <c r="AT64" s="18" t="s">
-        <v>1490</v>
-      </c>
       <c r="AU64" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:47" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D65" s="18">
         <v>80</v>
@@ -14827,10 +15006,10 @@
         <v>10</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="L65" s="21" t="s">
         <v>52</v>
@@ -14839,13 +15018,13 @@
         <v>53</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q65" s="18" t="s">
         <v>56</v>
@@ -14854,22 +15033,22 @@
         <v>57</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="T65" s="18" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="U65" s="26" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="V65" s="18" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="X65" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y65" s="52" t="s">
         <v>63</v>
@@ -14884,10 +15063,10 @@
         <v>63</v>
       </c>
       <c r="AC65" s="18" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AD65" s="18" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="AE65" s="18" t="s">
         <v>63</v>
@@ -14899,55 +15078,55 @@
         <v>63</v>
       </c>
       <c r="AH65" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI65" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ65" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK65" s="22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AL65" s="26"/>
       <c r="AM65" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AN65" s="18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AO65" s="18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AP65" s="18" t="s">
         <v>1500</v>
       </c>
-      <c r="AN65" s="18" t="s">
+      <c r="AQ65" s="18" t="s">
         <v>1501</v>
       </c>
-      <c r="AO65" s="18" t="s">
+      <c r="AR65" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS65" s="18" t="s">
         <v>1502</v>
       </c>
-      <c r="AP65" s="18" t="s">
+      <c r="AT65" s="18" t="s">
         <v>1503</v>
       </c>
-      <c r="AQ65" s="18" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AR65" s="26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS65" s="18" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AT65" s="18" t="s">
-        <v>1506</v>
-      </c>
       <c r="AU65" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="1:47" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D66" s="18">
         <v>120</v>
@@ -14968,10 +15147,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="L66" s="21" t="s">
         <v>52</v>
@@ -14980,13 +15159,13 @@
         <v>53</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="P66" s="26" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="Q66" s="18" t="s">
         <v>114</v>
@@ -14995,22 +15174,22 @@
         <v>115</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="T66" s="18" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="U66" s="26" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="V66" s="18" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="X66" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y66" s="52" t="s">
         <v>63</v>
@@ -15025,10 +15204,10 @@
         <v>63</v>
       </c>
       <c r="AC66" s="18" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AD66" s="18" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="AE66" s="18" t="s">
         <v>63</v>
@@ -15040,55 +15219,55 @@
         <v>63</v>
       </c>
       <c r="AH66" s="18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AI66" s="22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK66" s="22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AL66" s="26"/>
       <c r="AM66" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AN66" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AO66" s="18" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AP66" s="18" t="s">
         <v>1516</v>
       </c>
-      <c r="AN66" s="18" t="s">
+      <c r="AQ66" s="18" t="s">
         <v>1517</v>
       </c>
-      <c r="AO66" s="18" t="s">
+      <c r="AR66" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AS66" s="18" t="s">
         <v>1518</v>
       </c>
-      <c r="AP66" s="18" t="s">
+      <c r="AT66" s="18" t="s">
         <v>1519</v>
       </c>
-      <c r="AQ66" s="18" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AR66" s="26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AS66" s="18" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AT66" s="18" t="s">
-        <v>1522</v>
-      </c>
       <c r="AU66" s="18" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="67" spans="1:47" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D67" s="18">
         <v>80</v>
@@ -15109,10 +15288,10 @@
         <v>33</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>142</v>
@@ -15121,10 +15300,10 @@
         <v>143</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="P67" s="18" t="s">
         <v>196</v>
@@ -15136,22 +15315,22 @@
         <v>57</v>
       </c>
       <c r="S67" s="18" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="T67" s="18" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="U67" s="26" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="V67" s="18" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="X67" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y67" s="52" t="s">
         <v>63</v>
@@ -15169,10 +15348,10 @@
         <v>63</v>
       </c>
       <c r="AD67" s="18" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="AE67" s="18" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AF67" s="18" t="s">
         <v>63</v>
@@ -15181,55 +15360,55 @@
         <v>63</v>
       </c>
       <c r="AH67" s="18" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AI67" s="22" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK67" s="22" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="AL67" s="26"/>
       <c r="AM67" s="18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AN67" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AO67" s="18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AP67" s="18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AQ67" s="18" t="s">
         <v>1537</v>
-      </c>
-      <c r="AN67" s="18" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AO67" s="18" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AP67" s="18" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AQ67" s="18" t="s">
-        <v>1540</v>
       </c>
       <c r="AR67" s="18" t="s">
         <v>211</v>
       </c>
       <c r="AS67" s="18" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="AT67" s="18" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AU67" s="18" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="68" spans="1:47" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D68" s="18">
         <v>120</v>
@@ -15250,10 +15429,10 @@
         <v>28</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="L68" s="21" t="s">
         <v>109</v>
@@ -15262,10 +15441,10 @@
         <v>110</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="P68" s="18" t="s">
         <v>113</v>
@@ -15277,22 +15456,22 @@
         <v>57</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="T68" s="18" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="U68" s="26" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="V68" s="18" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="X68" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y68" s="52" t="s">
         <v>63</v>
@@ -15307,13 +15486,13 @@
         <v>63</v>
       </c>
       <c r="AC68" s="18" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="AD68" s="18" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="AE68" s="18" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="AF68" s="18" t="s">
         <v>63</v>
@@ -15322,55 +15501,55 @@
         <v>63</v>
       </c>
       <c r="AH68" s="18" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AJ68" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK68" s="22" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="AL68" s="26"/>
       <c r="AM68" s="18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AN68" s="18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AO68" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AP68" s="18" t="s">
         <v>1557</v>
       </c>
-      <c r="AN68" s="18" t="s">
+      <c r="AQ68" s="18" t="s">
         <v>1558</v>
-      </c>
-      <c r="AO68" s="18" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AP68" s="18" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AQ68" s="18" t="s">
-        <v>1561</v>
       </c>
       <c r="AR68" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS68" s="18" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AT68" s="18" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AU68" s="18" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="69" spans="1:47" ht="15.75" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D69" s="18">
         <v>80</v>
@@ -15391,10 +15570,10 @@
         <v>19</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="L69" s="21" t="s">
         <v>109</v>
@@ -15403,10 +15582,10 @@
         <v>110</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="P69" s="18" t="s">
         <v>270</v>
@@ -15418,22 +15597,22 @@
         <v>115</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="U69" s="26" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="V69" s="18" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="X69" s="51" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Y69" s="52" t="s">
         <v>63</v>
@@ -15451,10 +15630,10 @@
         <v>63</v>
       </c>
       <c r="AD69" s="18" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AE69" s="18" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AF69" s="18" t="s">
         <v>63</v>
@@ -15463,44 +15642,44 @@
         <v>63</v>
       </c>
       <c r="AH69" s="18" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AI69" s="22" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AK69" s="22" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AL69" s="26"/>
       <c r="AM69" s="18" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AN69" s="18" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AO69" s="18" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AP69" s="18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AQ69" s="18" t="s">
         <v>1575</v>
-      </c>
-      <c r="AN69" s="18" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AO69" s="18" t="s">
-        <v>1576</v>
-      </c>
-      <c r="AP69" s="18" t="s">
-        <v>1577</v>
-      </c>
-      <c r="AQ69" s="18" t="s">
-        <v>1578</v>
       </c>
       <c r="AR69" s="18" t="s">
         <v>283</v>
       </c>
       <c r="AS69" s="18" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="AT69" s="18" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="AU69" s="18" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="70" spans="1:47" ht="15.75" customHeight="1">

--- a/data/yasai.xlsx
+++ b/data/yasai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catfi\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_CEB82CF65B1A5BB3360CD3186A473DEDF8D1D661" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FF3C361-AFF7-4882-8B4E-3B5696365049}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_CEB82CF65B1A5BB3360CD3186A473DEDF8D1D661" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F904D920-0DBA-4F28-892F-6BF743DE2CE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3289,13 +3289,7 @@
     <t>https://kyoyasai.mirko.jp/cardimg/K044.jpg</t>
   </si>
   <si>
-    <t>京丹波町やタカラバイオ、今日丹波森林組合による第三セクター　瑞穂農林株式会社により、工場で人工栽培されています。</t>
-  </si>
-  <si>
     <t>「香り松茸、味しめじ」といわれるように旨味成分が多く、料亭などで京料理の食材にも使われています。</t>
-  </si>
-  <si>
-    <t>技術的に人工栽培が非常に難しく、この工場でしか人工栽培は行われていない希少なこのうこです。</t>
   </si>
   <si>
     <t>1月上旬</t>
@@ -5237,6 +5231,17 @@
   </si>
   <si>
     <t>承和5年（838）の文献にせりの栽培が記載されていることからねぎの栽培とともに古く、湧水の多い低湿地の利用として多く栽培されたようです。現在のような湧水栽培が行われたのは約300年前と言われています。</t>
+  </si>
+  <si>
+    <t>技術的に人工栽培が非常に難しく、この工場でしか人工栽培は行われていない希少なきのこです。</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>京丹波町やタカラバイオ、京丹波森林組合による第三セクター　瑞穂農林株式会社により、工場で人工栽培されています。</t>
+    <rPh sb="12" eb="15">
+      <t>キョウタンバ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
   </si>
 </sst>
 </file>
@@ -5893,7 +5898,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6127,7 +6132,7 @@
         <v>55</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>56</v>
@@ -6142,10 +6147,10 @@
         <v>59</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="W2" s="22" t="s">
         <v>60</v>
@@ -6268,7 +6273,7 @@
         <v>88</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>56</v>
@@ -6283,7 +6288,7 @@
         <v>90</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>91</v>
@@ -6422,10 +6427,10 @@
         <v>117</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="W4" s="22" t="s">
         <v>118</v>
@@ -6565,10 +6570,10 @@
         <v>148</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="W5" s="22" t="s">
         <v>149</v>
@@ -6706,7 +6711,7 @@
         <v>173</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="V6" s="18" t="s">
         <v>174</v>
@@ -6847,10 +6852,10 @@
         <v>198</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="W7" s="22" t="s">
         <v>199</v>
@@ -6990,10 +6995,10 @@
         <v>198</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="W8" s="22" t="s">
         <v>223</v>
@@ -7133,10 +7138,10 @@
         <v>246</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="W9" s="22" t="s">
         <v>247</v>
@@ -7276,10 +7281,10 @@
         <v>272</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="W10" s="22" t="s">
         <v>273</v>
@@ -7404,7 +7409,7 @@
         <v>293</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q11" s="18" t="s">
         <v>114</v>
@@ -7419,10 +7424,10 @@
         <v>295</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="W11" s="22" t="s">
         <v>296</v>
@@ -7488,7 +7493,7 @@
         <v>306</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AS11" s="18" t="s">
         <v>307</v>
@@ -7562,10 +7567,10 @@
         <v>318</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>319</v>
@@ -7705,10 +7710,10 @@
         <v>340</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="W13" s="22" t="s">
         <v>341</v>
@@ -7729,7 +7734,7 @@
         <v>62</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AD13" s="18" t="s">
         <v>342</v>
@@ -7848,10 +7853,10 @@
         <v>359</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="W14" s="22" t="s">
         <v>360</v>
@@ -8117,7 +8122,7 @@
         <v>407</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q16" s="18" t="s">
         <v>114</v>
@@ -8199,7 +8204,7 @@
         <v>420</v>
       </c>
       <c r="AR16" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS16" s="18" t="s">
         <v>421</v>
@@ -8399,7 +8404,7 @@
         <v>454</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q18" s="18" t="s">
         <v>56</v>
@@ -8481,7 +8486,7 @@
         <v>468</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS18" s="18" t="s">
         <v>469</v>
@@ -9386,7 +9391,7 @@
         <v>612</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q25" s="18" t="s">
         <v>114</v>
@@ -9468,7 +9473,7 @@
         <v>624</v>
       </c>
       <c r="AR25" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS25" s="18" t="s">
         <v>613</v>
@@ -9527,7 +9532,7 @@
         <v>633</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q26" s="18" t="s">
         <v>56</v>
@@ -9609,7 +9614,7 @@
         <v>647</v>
       </c>
       <c r="AR26" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS26" s="18" t="s">
         <v>648</v>
@@ -9668,7 +9673,7 @@
         <v>657</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>56</v>
@@ -9683,10 +9688,10 @@
         <v>659</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="W27" s="22" t="s">
         <v>660</v>
@@ -9707,7 +9712,7 @@
         <v>63</v>
       </c>
       <c r="AC27" s="34" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AD27" s="34" t="s">
         <v>661</v>
@@ -9750,7 +9755,7 @@
         <v>666</v>
       </c>
       <c r="AR27" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS27" s="18" t="s">
         <v>667</v>
@@ -10158,7 +10163,7 @@
       </c>
       <c r="AL30" s="34"/>
       <c r="AM30" s="18" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AN30" s="18" t="s">
         <v>720</v>
@@ -10250,7 +10255,7 @@
         <v>751</v>
       </c>
       <c r="V31" s="18" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="W31" s="22" t="s">
         <v>752</v>
@@ -10371,7 +10376,7 @@
         <v>769</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q32" s="18" t="s">
         <v>56</v>
@@ -10416,7 +10421,7 @@
         <v>776</v>
       </c>
       <c r="AE32" s="60" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AF32" s="18" t="s">
         <v>777</v>
@@ -10455,7 +10460,7 @@
         <v>783</v>
       </c>
       <c r="AR32" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS32" s="18" t="s">
         <v>784</v>
@@ -10796,7 +10801,7 @@
         <v>839</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q35" s="18" t="s">
         <v>56</v>
@@ -10878,7 +10883,7 @@
         <v>851</v>
       </c>
       <c r="AR35" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS35" s="18" t="s">
         <v>852</v>
@@ -10937,7 +10942,7 @@
         <v>861</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q36" s="18" t="s">
         <v>56</v>
@@ -11019,7 +11024,7 @@
         <v>874</v>
       </c>
       <c r="AR36" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS36" s="18" t="s">
         <v>862</v>
@@ -11360,7 +11365,7 @@
         <v>927</v>
       </c>
       <c r="P39" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>56</v>
@@ -11442,7 +11447,7 @@
         <v>942</v>
       </c>
       <c r="AR39" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS39" s="18" t="s">
         <v>943</v>
@@ -11783,7 +11788,7 @@
         <v>1003</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q42" s="18" t="s">
         <v>56</v>
@@ -11865,7 +11870,7 @@
         <v>1017</v>
       </c>
       <c r="AR42" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS42" s="18" t="s">
         <v>994</v>
@@ -11924,7 +11929,7 @@
         <v>1026</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q43" s="18" t="s">
         <v>114</v>
@@ -12006,7 +12011,7 @@
         <v>1043</v>
       </c>
       <c r="AR43" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AS43" s="18" t="s">
         <v>1044</v>
@@ -12206,7 +12211,7 @@
         <v>1077</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q45" s="18" t="s">
         <v>56</v>
@@ -12221,10 +12226,10 @@
         <v>1079</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="V45" s="21" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="W45" s="22" t="s">
         <v>1080</v>
@@ -12245,35 +12250,35 @@
         <v>62</v>
       </c>
       <c r="AC45" s="18" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AD45" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="AD45" s="18" t="s">
+      <c r="AE45" s="18" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AF45" s="18" t="s">
         <v>1082</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AF45" s="18" t="s">
-        <v>1084</v>
       </c>
       <c r="AG45" s="18" t="s">
         <v>228</v>
       </c>
       <c r="AH45" s="18" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AI45" s="22" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AJ45" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK45" s="22" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AL45" s="18"/>
       <c r="AM45" s="18" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AN45" s="18" t="s">
         <v>1074</v>
@@ -12282,33 +12287,33 @@
         <v>1075</v>
       </c>
       <c r="AP45" s="18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AQ45" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AR45" s="18" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS45" s="18" t="s">
         <v>1089</v>
       </c>
-      <c r="AQ45" s="18" t="s">
+      <c r="AT45" s="18" t="s">
         <v>1090</v>
       </c>
-      <c r="AR45" s="18" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS45" s="18" t="s">
+      <c r="AU45" s="18" t="s">
         <v>1091</v>
-      </c>
-      <c r="AT45" s="18" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AU45" s="18" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="46" spans="1:47" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>1094</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>1096</v>
       </c>
       <c r="D46" s="19">
         <v>110</v>
@@ -12329,10 +12334,10 @@
         <v>20</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L46" s="18" t="s">
         <v>142</v>
@@ -12341,10 +12346,10 @@
         <v>143</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>146</v>
@@ -12356,10 +12361,10 @@
         <v>115</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="U46" s="18" t="s">
         <v>1029</v>
@@ -12368,7 +12373,7 @@
         <v>1030</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="X46" s="43" t="s">
         <v>958</v>
@@ -12386,13 +12391,13 @@
         <v>62</v>
       </c>
       <c r="AC46" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AD46" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AE46" s="18" t="s">
         <v>1104</v>
-      </c>
-      <c r="AD46" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>1106</v>
       </c>
       <c r="AF46" s="18" t="s">
         <v>986</v>
@@ -12404,52 +12409,52 @@
         <v>1036</v>
       </c>
       <c r="AI46" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AJ46" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK46" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AL46" s="18"/>
       <c r="AM46" s="18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AN46" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AO46" s="18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AP46" s="18" t="s">
         <v>1109</v>
       </c>
-      <c r="AN46" s="18" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AO46" s="18" t="s">
+      <c r="AQ46" s="18" t="s">
         <v>1110</v>
-      </c>
-      <c r="AP46" s="18" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AQ46" s="18" t="s">
-        <v>1112</v>
       </c>
       <c r="AR46" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS46" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AT46" s="18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AU46" s="18" t="s">
         <v>1113</v>
-      </c>
-      <c r="AT46" s="18" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AU46" s="18" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="47" spans="1:47" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>1116</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>1118</v>
       </c>
       <c r="D47" s="19">
         <v>130</v>
@@ -12470,10 +12475,10 @@
         <v>5</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>142</v>
@@ -12482,10 +12487,10 @@
         <v>143</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>357</v>
@@ -12497,19 +12502,19 @@
         <v>57</v>
       </c>
       <c r="S47" s="18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="T47" s="18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>1608</v>
+      </c>
+      <c r="V47" s="18" t="s">
         <v>1123</v>
       </c>
-      <c r="T47" s="18" t="s">
+      <c r="W47" s="22" t="s">
         <v>1124</v>
-      </c>
-      <c r="U47" s="18" t="s">
-        <v>1610</v>
-      </c>
-      <c r="V47" s="18" t="s">
-        <v>1125</v>
-      </c>
-      <c r="W47" s="22" t="s">
-        <v>1126</v>
       </c>
       <c r="X47" s="43" t="s">
         <v>958</v>
@@ -12526,14 +12531,14 @@
       <c r="AB47" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="AC47" s="21" t="s">
+      <c r="AC47" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AD47" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AE47" s="18" t="s">
         <v>1127</v>
-      </c>
-      <c r="AD47" s="21" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AE47" s="18" t="s">
-        <v>1129</v>
       </c>
       <c r="AF47" s="18" t="s">
         <v>68</v>
@@ -12545,52 +12550,52 @@
         <v>1036</v>
       </c>
       <c r="AI47" s="22" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AJ47" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK47" s="46" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AL47" s="21"/>
       <c r="AM47" s="18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AN47" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AO47" s="18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AP47" s="18" t="s">
         <v>1132</v>
       </c>
-      <c r="AN47" s="18" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AO47" s="18" t="s">
+      <c r="AQ47" s="18" t="s">
         <v>1133</v>
-      </c>
-      <c r="AP47" s="18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AQ47" s="18" t="s">
-        <v>1135</v>
       </c>
       <c r="AR47" s="18" t="s">
         <v>370</v>
       </c>
       <c r="AS47" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AT47" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AU47" s="18" t="s">
         <v>1136</v>
-      </c>
-      <c r="AT47" s="18" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AU47" s="18" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="48" spans="1:47" ht="15.75" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>1139</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>1141</v>
       </c>
       <c r="D48" s="19">
         <v>100</v>
@@ -12611,10 +12616,10 @@
         <v>17</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>109</v>
@@ -12623,10 +12628,10 @@
         <v>110</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="P48" s="18" t="s">
         <v>171</v>
@@ -12638,19 +12643,19 @@
         <v>57</v>
       </c>
       <c r="S48" s="18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T48" s="18" t="s">
+        <v>1145</v>
+      </c>
+      <c r="U48" s="18" t="s">
+        <v>1609</v>
+      </c>
+      <c r="V48" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="T48" s="18" t="s">
+      <c r="W48" s="22" t="s">
         <v>1147</v>
-      </c>
-      <c r="U48" s="18" t="s">
-        <v>1611</v>
-      </c>
-      <c r="V48" s="21" t="s">
-        <v>1148</v>
-      </c>
-      <c r="W48" s="22" t="s">
-        <v>1149</v>
       </c>
       <c r="X48" s="43" t="s">
         <v>958</v>
@@ -12668,13 +12673,13 @@
         <v>62</v>
       </c>
       <c r="AC48" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AD48" s="18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AE48" s="18" t="s">
         <v>1150</v>
-      </c>
-      <c r="AD48" s="18" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AE48" s="18" t="s">
-        <v>1152</v>
       </c>
       <c r="AF48" s="18" t="s">
         <v>251</v>
@@ -12686,52 +12691,52 @@
         <v>1036</v>
       </c>
       <c r="AI48" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AJ48" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AL48" s="18"/>
       <c r="AM48" s="18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AN48" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AO48" s="18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AP48" s="18" t="s">
         <v>1155</v>
       </c>
-      <c r="AN48" s="18" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AO48" s="18" t="s">
+      <c r="AQ48" s="18" t="s">
         <v>1156</v>
-      </c>
-      <c r="AP48" s="18" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AQ48" s="18" t="s">
-        <v>1158</v>
       </c>
       <c r="AR48" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS48" s="18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AT48" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AU48" s="18" t="s">
         <v>1159</v>
-      </c>
-      <c r="AT48" s="18" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AU48" s="18" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="49" spans="1:47" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>1162</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>1164</v>
       </c>
       <c r="D49" s="19">
         <v>90</v>
@@ -12752,10 +12757,10 @@
         <v>8</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>109</v>
@@ -12764,10 +12769,10 @@
         <v>110</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="P49" s="18" t="s">
         <v>113</v>
@@ -12779,19 +12784,19 @@
         <v>115</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="U49" s="18" t="s">
         <v>751</v>
       </c>
       <c r="V49" s="21" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="W49" s="22" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="X49" s="43" t="s">
         <v>958</v>
@@ -12809,70 +12814,70 @@
         <v>62</v>
       </c>
       <c r="AC49" s="18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AD49" s="18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AE49" s="18" t="s">
         <v>1173</v>
       </c>
-      <c r="AD49" s="18" t="s">
+      <c r="AF49" s="18" t="s">
         <v>1174</v>
       </c>
-      <c r="AE49" s="18" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AF49" s="18" t="s">
-        <v>1176</v>
-      </c>
       <c r="AG49" s="18" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AH49" s="18" t="s">
         <v>1036</v>
       </c>
       <c r="AI49" s="22" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AJ49" s="47" t="s">
         <v>71</v>
       </c>
       <c r="AK49" s="22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AL49" s="18"/>
       <c r="AM49" s="18" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AN49" s="18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AO49" s="18" t="s">
         <v>1179</v>
       </c>
-      <c r="AN49" s="18" t="s">
+      <c r="AP49" s="18" t="s">
         <v>1180</v>
       </c>
-      <c r="AO49" s="18" t="s">
+      <c r="AQ49" s="18" t="s">
         <v>1181</v>
-      </c>
-      <c r="AP49" s="18" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AQ49" s="18" t="s">
-        <v>1183</v>
       </c>
       <c r="AR49" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS49" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AT49" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AU49" s="18" t="s">
         <v>1184</v>
-      </c>
-      <c r="AT49" s="18" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AU49" s="18" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:47" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>1187</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>1189</v>
       </c>
       <c r="D50" s="19">
         <v>90</v>
@@ -12893,10 +12898,10 @@
         <v>11</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>52</v>
@@ -12905,13 +12910,13 @@
         <v>53</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q50" s="18" t="s">
         <v>56</v>
@@ -12920,19 +12925,19 @@
         <v>57</v>
       </c>
       <c r="S50" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="U50" s="18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="V50" s="18" t="s">
         <v>1194</v>
       </c>
-      <c r="T50" s="18" t="s">
+      <c r="W50" s="22" t="s">
         <v>1195</v>
-      </c>
-      <c r="U50" s="18" t="s">
-        <v>1612</v>
-      </c>
-      <c r="V50" s="18" t="s">
-        <v>1196</v>
-      </c>
-      <c r="W50" s="22" t="s">
-        <v>1197</v>
       </c>
       <c r="X50" s="43" t="s">
         <v>958</v>
@@ -12950,70 +12955,70 @@
         <v>62</v>
       </c>
       <c r="AC50" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AD50" s="18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AE50" s="18" t="s">
         <v>1198</v>
       </c>
-      <c r="AD50" s="18" t="s">
+      <c r="AF50" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AG50" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AH50" s="18" t="s">
         <v>1199</v>
       </c>
-      <c r="AE50" s="18" t="s">
+      <c r="AI50" s="22" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF50" s="18" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AG50" s="18" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AH50" s="18" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AI50" s="22" t="s">
-        <v>1202</v>
       </c>
       <c r="AJ50" s="25" t="s">
         <v>71</v>
       </c>
       <c r="AK50" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AL50" s="18"/>
       <c r="AM50" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AN50" s="18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AO50" s="18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AP50" s="18" t="s">
         <v>1203</v>
       </c>
-      <c r="AN50" s="18" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AO50" s="18" t="s">
+      <c r="AQ50" s="18" t="s">
         <v>1204</v>
       </c>
-      <c r="AP50" s="18" t="s">
+      <c r="AR50" s="18" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS50" s="18" t="s">
         <v>1205</v>
       </c>
-      <c r="AQ50" s="18" t="s">
+      <c r="AT50" s="18" t="s">
         <v>1206</v>
       </c>
-      <c r="AR50" s="18" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS50" s="18" t="s">
+      <c r="AU50" s="18" t="s">
         <v>1207</v>
-      </c>
-      <c r="AT50" s="18" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AU50" s="18" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="51" spans="1:47" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>1210</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>1212</v>
       </c>
       <c r="D51" s="18">
         <v>120</v>
@@ -13034,10 +13039,10 @@
         <v>5</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>109</v>
@@ -13046,10 +13051,10 @@
         <v>110</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="P51" s="18" t="s">
         <v>171</v>
@@ -13061,22 +13066,22 @@
         <v>115</v>
       </c>
       <c r="S51" s="18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U51" s="18" t="s">
+        <v>1611</v>
+      </c>
+      <c r="V51" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W51" s="22" t="s">
         <v>1217</v>
       </c>
-      <c r="T51" s="18" t="s">
+      <c r="X51" s="23" t="s">
         <v>1218</v>
-      </c>
-      <c r="U51" s="18" t="s">
-        <v>1613</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>1641</v>
-      </c>
-      <c r="W51" s="22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="X51" s="23" t="s">
-        <v>1220</v>
       </c>
       <c r="Y51" s="24" t="s">
         <v>63</v>
@@ -13091,13 +13096,13 @@
         <v>63</v>
       </c>
       <c r="AC51" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AD51" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AE51" s="18" t="s">
         <v>1221</v>
-      </c>
-      <c r="AD51" s="18" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AE51" s="18" t="s">
-        <v>1223</v>
       </c>
       <c r="AF51" s="18" t="s">
         <v>203</v>
@@ -13106,53 +13111,53 @@
         <v>123</v>
       </c>
       <c r="AH51" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AI51" s="22" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AJ51" s="48" t="s">
         <v>1224</v>
-      </c>
-      <c r="AI51" s="22" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AJ51" s="48" t="s">
-        <v>1226</v>
       </c>
       <c r="AK51" s="18"/>
       <c r="AL51" s="18"/>
       <c r="AM51" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AN51" s="18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AO51" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AP51" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AQ51" s="18" t="s">
         <v>1227</v>
-      </c>
-      <c r="AN51" s="18" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AO51" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AP51" s="18" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AQ51" s="18" t="s">
-        <v>1229</v>
       </c>
       <c r="AR51" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS51" s="18" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AT51" s="18" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AU51" s="18" t="s">
         <v>1230</v>
-      </c>
-      <c r="AT51" s="18" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AU51" s="18" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="52" spans="1:47" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>1233</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>1235</v>
       </c>
       <c r="D52" s="18">
         <v>250</v>
@@ -13173,10 +13178,10 @@
         <v>110</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>109</v>
@@ -13185,13 +13190,13 @@
         <v>110</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="Q52" s="18" t="s">
         <v>56</v>
@@ -13200,22 +13205,22 @@
         <v>57</v>
       </c>
       <c r="S52" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U52" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V52" s="21" t="s">
+        <v>1641</v>
+      </c>
+      <c r="W52" s="22" t="s">
         <v>1240</v>
       </c>
-      <c r="T52" s="18" t="s">
-        <v>1241</v>
-      </c>
-      <c r="U52" s="18" t="s">
-        <v>1614</v>
-      </c>
-      <c r="V52" s="21" t="s">
-        <v>1643</v>
-      </c>
-      <c r="W52" s="22" t="s">
-        <v>1242</v>
-      </c>
       <c r="X52" s="23" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Y52" s="24" t="s">
         <v>63</v>
@@ -13230,68 +13235,68 @@
         <v>63</v>
       </c>
       <c r="AC52" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AD52" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AE52" s="18" t="s">
         <v>1243</v>
       </c>
-      <c r="AD52" s="18" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>1245</v>
-      </c>
       <c r="AF52" s="18" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AG52" s="18" t="s">
         <v>228</v>
       </c>
       <c r="AH52" s="18" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="AI52" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AJ52" s="48" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AK52" s="18"/>
       <c r="AL52" s="18"/>
       <c r="AM52" s="18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AN52" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AO52" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AP52" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AQ52" s="18" t="s">
         <v>1248</v>
-      </c>
-      <c r="AN52" s="18" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AO52" s="18" t="s">
-        <v>1249</v>
-      </c>
-      <c r="AP52" s="18" t="s">
-        <v>1238</v>
-      </c>
-      <c r="AQ52" s="18" t="s">
-        <v>1250</v>
       </c>
       <c r="AR52" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS52" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AT52" s="18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AU52" s="18" t="s">
         <v>1251</v>
-      </c>
-      <c r="AT52" s="18" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AU52" s="18" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="53" spans="1:47" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>1254</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>1256</v>
       </c>
       <c r="D53" s="18">
         <v>120</v>
@@ -13312,10 +13317,10 @@
         <v>30</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>109</v>
@@ -13324,10 +13329,10 @@
         <v>110</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="P53" s="18" t="s">
         <v>113</v>
@@ -13339,22 +13344,22 @@
         <v>115</v>
       </c>
       <c r="S53" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U53" s="18" t="s">
+        <v>1613</v>
+      </c>
+      <c r="V53" s="18" t="s">
+        <v>1642</v>
+      </c>
+      <c r="W53" s="22" t="s">
         <v>1261</v>
       </c>
-      <c r="T53" s="18" t="s">
-        <v>1262</v>
-      </c>
-      <c r="U53" s="18" t="s">
-        <v>1615</v>
-      </c>
-      <c r="V53" s="18" t="s">
-        <v>1644</v>
-      </c>
-      <c r="W53" s="22" t="s">
-        <v>1263</v>
-      </c>
       <c r="X53" s="23" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Y53" s="24" t="s">
         <v>63</v>
@@ -13369,13 +13374,13 @@
         <v>63</v>
       </c>
       <c r="AC53" s="18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AD53" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AE53" s="18" t="s">
         <v>1264</v>
-      </c>
-      <c r="AD53" s="18" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AE53" s="18" t="s">
-        <v>1266</v>
       </c>
       <c r="AF53" s="18" t="s">
         <v>122</v>
@@ -13384,53 +13389,53 @@
         <v>1035</v>
       </c>
       <c r="AH53" s="18" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="AI53" s="22" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AJ53" s="48" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AK53" s="18"/>
       <c r="AL53" s="18"/>
       <c r="AM53" s="18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AN53" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AO53" s="18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AP53" s="18" t="s">
         <v>1269</v>
       </c>
-      <c r="AN53" s="18" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AO53" s="18" t="s">
+      <c r="AQ53" s="18" t="s">
         <v>1270</v>
-      </c>
-      <c r="AP53" s="18" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AQ53" s="18" t="s">
-        <v>1272</v>
       </c>
       <c r="AR53" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS53" s="18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AT53" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AU53" s="18" t="s">
         <v>1273</v>
-      </c>
-      <c r="AT53" s="18" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AU53" s="18" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="54" spans="1:47" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D54" s="18">
         <v>500</v>
@@ -13451,10 +13456,10 @@
         <v>100</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>142</v>
@@ -13463,10 +13468,10 @@
         <v>143</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="P54" s="18" t="s">
         <v>357</v>
@@ -13478,22 +13483,22 @@
         <v>115</v>
       </c>
       <c r="S54" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="T54" s="18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U54" s="20" t="s">
+        <v>1614</v>
+      </c>
+      <c r="V54" s="18" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W54" s="22" t="s">
+        <v>1653</v>
+      </c>
+      <c r="X54" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="T54" s="18" t="s">
-        <v>1283</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>1616</v>
-      </c>
-      <c r="V54" s="18" t="s">
-        <v>1645</v>
-      </c>
-      <c r="W54" s="22" t="s">
-        <v>1655</v>
-      </c>
-      <c r="X54" s="49" t="s">
-        <v>1284</v>
       </c>
       <c r="Y54" s="50" t="s">
         <v>63</v>
@@ -13508,10 +13513,10 @@
         <v>63</v>
       </c>
       <c r="AC54" s="18" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AD54" s="18" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AE54" s="18" t="s">
         <v>63</v>
@@ -13523,43 +13528,43 @@
         <v>63</v>
       </c>
       <c r="AH54" s="18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AI54" s="22" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AJ54" s="18" t="s">
         <v>1287</v>
       </c>
-      <c r="AI54" s="22" t="s">
+      <c r="AK54" s="22" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AL54" s="22" t="s">
         <v>1288</v>
       </c>
-      <c r="AJ54" s="18" t="s">
+      <c r="AM54" s="18" t="s">
         <v>1289</v>
       </c>
-      <c r="AK54" s="22" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AL54" s="22" t="s">
+      <c r="AN54" s="18" t="s">
         <v>1290</v>
       </c>
-      <c r="AM54" s="18" t="s">
+      <c r="AO54" s="18" t="s">
         <v>1291</v>
       </c>
-      <c r="AN54" s="18" t="s">
+      <c r="AP54" s="18" t="s">
         <v>1292</v>
       </c>
-      <c r="AO54" s="18" t="s">
+      <c r="AQ54" s="18" t="s">
         <v>1293</v>
       </c>
-      <c r="AP54" s="18" t="s">
+      <c r="AR54" s="20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS54" s="18" t="s">
         <v>1294</v>
       </c>
-      <c r="AQ54" s="18" t="s">
+      <c r="AT54" s="18" t="s">
         <v>1295</v>
-      </c>
-      <c r="AR54" s="20" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS54" s="18" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AT54" s="18" t="s">
-        <v>1297</v>
       </c>
       <c r="AU54" s="18" t="s">
         <v>1046</v>
@@ -13567,13 +13572,13 @@
     </row>
     <row r="55" spans="1:47" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D55" s="18">
         <v>90</v>
@@ -13594,10 +13599,10 @@
         <v>15</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>109</v>
@@ -13609,7 +13614,7 @@
         <v>770</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="P55" s="18" t="s">
         <v>113</v>
@@ -13621,22 +13626,22 @@
         <v>115</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="T55" s="18" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="W55" s="22" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="X55" s="49" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Y55" s="50" t="s">
         <v>63</v>
@@ -13651,13 +13656,13 @@
         <v>63</v>
       </c>
       <c r="AC55" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AD55" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AE55" s="18" t="s">
         <v>1305</v>
-      </c>
-      <c r="AD55" s="18" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AE55" s="18" t="s">
-        <v>1307</v>
       </c>
       <c r="AF55" s="18" t="s">
         <v>63</v>
@@ -13666,43 +13671,43 @@
         <v>63</v>
       </c>
       <c r="AH55" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AI55" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
         <v>1308</v>
       </c>
-      <c r="AI55" s="22" t="s">
+      <c r="AK55" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AL55" s="22" t="s">
         <v>1309</v>
       </c>
-      <c r="AJ55" s="18" t="s">
+      <c r="AM55" s="18" t="s">
         <v>1310</v>
       </c>
-      <c r="AK55" s="22" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AL55" s="22" t="s">
+      <c r="AN55" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="AM55" s="18" t="s">
+      <c r="AO55" s="18" t="s">
         <v>1312</v>
       </c>
-      <c r="AN55" s="18" t="s">
+      <c r="AP55" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="AO55" s="18" t="s">
+      <c r="AQ55" s="18" t="s">
         <v>1314</v>
-      </c>
-      <c r="AP55" s="18" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AQ55" s="18" t="s">
-        <v>1316</v>
       </c>
       <c r="AR55" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS55" s="18" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AT55" s="18" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="AU55" s="18" t="s">
         <v>447</v>
@@ -13710,13 +13715,13 @@
     </row>
     <row r="56" spans="1:47" ht="15.75" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D56" s="18">
         <v>120</v>
@@ -13737,10 +13742,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>142</v>
@@ -13749,10 +13754,10 @@
         <v>143</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="P56" s="18" t="s">
         <v>146</v>
@@ -13764,22 +13769,22 @@
         <v>115</v>
       </c>
       <c r="S56" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="T56" s="18" t="s">
+        <v>1324</v>
+      </c>
+      <c r="U56" s="20" t="s">
+        <v>1616</v>
+      </c>
+      <c r="V56" s="18" t="s">
+        <v>1645</v>
+      </c>
+      <c r="W56" s="22" t="s">
+        <v>1655</v>
+      </c>
+      <c r="X56" s="51" t="s">
         <v>1325</v>
-      </c>
-      <c r="T56" s="18" t="s">
-        <v>1326</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>1618</v>
-      </c>
-      <c r="V56" s="18" t="s">
-        <v>1647</v>
-      </c>
-      <c r="W56" s="22" t="s">
-        <v>1657</v>
-      </c>
-      <c r="X56" s="51" t="s">
-        <v>1327</v>
       </c>
       <c r="Y56" s="52" t="s">
         <v>63</v>
@@ -13794,13 +13799,13 @@
         <v>63</v>
       </c>
       <c r="AC56" s="18" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AD56" s="18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AE56" s="18" t="s">
         <v>1328</v>
-      </c>
-      <c r="AD56" s="18" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AE56" s="18" t="s">
-        <v>1330</v>
       </c>
       <c r="AF56" s="18" t="s">
         <v>63</v>
@@ -13809,55 +13814,55 @@
         <v>63</v>
       </c>
       <c r="AH56" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AI56" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="AI56" s="22" t="s">
+      <c r="AK56" s="22" t="s">
         <v>1332</v>
-      </c>
-      <c r="AJ56" s="18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AK56" s="22" t="s">
-        <v>1334</v>
       </c>
       <c r="AL56" s="20"/>
       <c r="AM56" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AN56" s="18" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AO56" s="18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AP56" s="18" t="s">
         <v>1335</v>
       </c>
-      <c r="AN56" s="18" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AO56" s="18" t="s">
+      <c r="AQ56" s="18" t="s">
         <v>1336</v>
-      </c>
-      <c r="AP56" s="18" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AQ56" s="18" t="s">
-        <v>1338</v>
       </c>
       <c r="AR56" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS56" s="18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AT56" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AU56" s="18" t="s">
         <v>1339</v>
-      </c>
-      <c r="AT56" s="18" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AU56" s="18" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="57" spans="1:47" ht="15.75" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D57" s="18">
         <v>110</v>
@@ -13878,10 +13883,10 @@
         <v>40</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>52</v>
@@ -13890,13 +13895,13 @@
         <v>53</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="P57" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q57" s="18" t="s">
         <v>56</v>
@@ -13905,22 +13910,22 @@
         <v>57</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="X57" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y57" s="52" t="s">
         <v>63</v>
@@ -13935,13 +13940,13 @@
         <v>63</v>
       </c>
       <c r="AC57" s="18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AD57" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AE57" s="18" t="s">
         <v>1350</v>
-      </c>
-      <c r="AD57" s="18" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AE57" s="18" t="s">
-        <v>1352</v>
       </c>
       <c r="AF57" s="18" t="s">
         <v>63</v>
@@ -13950,55 +13955,55 @@
         <v>63</v>
       </c>
       <c r="AH57" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AI57" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AJ57" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="AI57" s="22" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AJ57" s="18" t="s">
-        <v>1333</v>
-      </c>
       <c r="AK57" s="22" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="AL57" s="20"/>
       <c r="AM57" s="18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AN57" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AO57" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AP57" s="18" t="s">
         <v>1354</v>
       </c>
-      <c r="AN57" s="18" t="s">
-        <v>1344</v>
-      </c>
-      <c r="AO57" s="18" t="s">
+      <c r="AQ57" s="18" t="s">
         <v>1355</v>
       </c>
-      <c r="AP57" s="18" t="s">
+      <c r="AR57" s="20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS57" s="18" t="s">
         <v>1356</v>
       </c>
-      <c r="AQ57" s="18" t="s">
+      <c r="AT57" s="18" t="s">
         <v>1357</v>
       </c>
-      <c r="AR57" s="20" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS57" s="18" t="s">
+      <c r="AU57" s="18" t="s">
         <v>1358</v>
-      </c>
-      <c r="AT57" s="18" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AU57" s="18" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="58" spans="1:47" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D58" s="18">
         <v>130</v>
@@ -14019,10 +14024,10 @@
         <v>50</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>109</v>
@@ -14031,10 +14036,10 @@
         <v>110</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="P58" s="18" t="s">
         <v>171</v>
@@ -14046,22 +14051,22 @@
         <v>57</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="T58" s="18" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="U58" s="26" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="V58" s="18" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="X58" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y58" s="52" t="s">
         <v>63</v>
@@ -14076,13 +14081,13 @@
         <v>63</v>
       </c>
       <c r="AC58" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AD58" s="18" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AE58" s="18" t="s">
         <v>1369</v>
-      </c>
-      <c r="AD58" s="18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AE58" s="18" t="s">
-        <v>1371</v>
       </c>
       <c r="AF58" s="18" t="s">
         <v>63</v>
@@ -14091,55 +14096,55 @@
         <v>63</v>
       </c>
       <c r="AH58" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AI58" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AJ58" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="AI58" s="22" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AJ58" s="18" t="s">
-        <v>1333</v>
-      </c>
       <c r="AK58" s="22" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="AL58" s="26"/>
       <c r="AM58" s="18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AN58" s="18" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AO58" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="AN58" s="18" t="s">
+      <c r="AP58" s="18" t="s">
         <v>1374</v>
       </c>
-      <c r="AO58" s="18" t="s">
+      <c r="AQ58" s="18" t="s">
         <v>1375</v>
-      </c>
-      <c r="AP58" s="18" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AQ58" s="18" t="s">
-        <v>1377</v>
       </c>
       <c r="AR58" s="18" t="s">
         <v>185</v>
       </c>
       <c r="AS58" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AT58" s="18" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AU58" s="18" t="s">
         <v>1378</v>
-      </c>
-      <c r="AT58" s="18" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AU58" s="18" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="59" spans="1:47" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D59" s="18">
         <v>180</v>
@@ -14160,10 +14165,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>109</v>
@@ -14172,10 +14177,10 @@
         <v>110</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="P59" s="18" t="s">
         <v>113</v>
@@ -14187,22 +14192,22 @@
         <v>57</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="W59" s="22" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X59" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y59" s="52" t="s">
         <v>63</v>
@@ -14217,13 +14222,13 @@
         <v>63</v>
       </c>
       <c r="AC59" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AD59" s="18" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AE59" s="18" t="s">
         <v>1389</v>
-      </c>
-      <c r="AD59" s="18" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AE59" s="18" t="s">
-        <v>1391</v>
       </c>
       <c r="AF59" s="18" t="s">
         <v>63</v>
@@ -14232,55 +14237,55 @@
         <v>63</v>
       </c>
       <c r="AH59" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AI59" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AJ59" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="AI59" s="22" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AJ59" s="18" t="s">
-        <v>1333</v>
-      </c>
       <c r="AK59" s="22" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="AL59" s="26"/>
       <c r="AM59" s="18" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AN59" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AO59" s="18" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AP59" s="18" t="s">
         <v>1393</v>
       </c>
-      <c r="AN59" s="18" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AO59" s="18" t="s">
+      <c r="AQ59" s="18" t="s">
         <v>1394</v>
-      </c>
-      <c r="AP59" s="18" t="s">
-        <v>1395</v>
-      </c>
-      <c r="AQ59" s="18" t="s">
-        <v>1396</v>
       </c>
       <c r="AR59" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS59" s="18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AT59" s="18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AU59" s="18" t="s">
         <v>1397</v>
-      </c>
-      <c r="AT59" s="18" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AU59" s="18" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="60" spans="1:47" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D60" s="18">
         <v>140</v>
@@ -14301,10 +14306,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="L60" s="21" t="s">
         <v>142</v>
@@ -14313,10 +14318,10 @@
         <v>143</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="P60" s="18" t="s">
         <v>357</v>
@@ -14328,22 +14333,22 @@
         <v>115</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="T60" s="18" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="U60" s="26" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="V60" s="18" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="W60" s="22" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="X60" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y60" s="52" t="s">
         <v>63</v>
@@ -14358,13 +14363,13 @@
         <v>63</v>
       </c>
       <c r="AC60" s="18" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AD60" s="18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AE60" s="18" t="s">
         <v>1408</v>
-      </c>
-      <c r="AD60" s="18" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AE60" s="18" t="s">
-        <v>1410</v>
       </c>
       <c r="AF60" s="18" t="s">
         <v>63</v>
@@ -14373,49 +14378,49 @@
         <v>63</v>
       </c>
       <c r="AH60" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AI60" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AJ60" s="18" t="s">
         <v>1331</v>
       </c>
-      <c r="AI60" s="22" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AJ60" s="18" t="s">
-        <v>1333</v>
-      </c>
       <c r="AK60" s="22" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AL60" s="26"/>
       <c r="AM60" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AN60" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AO60" s="18" t="s">
         <v>1412</v>
       </c>
-      <c r="AN60" s="18" t="s">
+      <c r="AP60" s="18" t="s">
         <v>1413</v>
       </c>
-      <c r="AO60" s="18" t="s">
+      <c r="AQ60" s="18" t="s">
         <v>1414</v>
-      </c>
-      <c r="AP60" s="18" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AQ60" s="18" t="s">
-        <v>1416</v>
       </c>
       <c r="AR60" s="18" t="s">
         <v>370</v>
       </c>
       <c r="AS60" s="18" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AT60" s="18" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AU60" s="18" t="s">
         <v>1417</v>
-      </c>
-      <c r="AT60" s="18" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AU60" s="18" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="61" spans="1:47" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>311</v>
@@ -14442,10 +14447,10 @@
         <v>6</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>52</v>
@@ -14454,13 +14459,13 @@
         <v>53</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="P61" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q61" s="18" t="s">
         <v>114</v>
@@ -14469,22 +14474,22 @@
         <v>115</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U61" s="26" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="V61" s="18" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="X61" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y61" s="52" t="s">
         <v>63</v>
@@ -14499,10 +14504,10 @@
         <v>63</v>
       </c>
       <c r="AC61" s="18" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="AD61" s="18" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="AE61" s="18" t="s">
         <v>63</v>
@@ -14514,55 +14519,55 @@
         <v>63</v>
       </c>
       <c r="AH61" s="18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AI61" s="22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AJ61" s="18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AK61" s="22" t="s">
         <v>1428</v>
-      </c>
-      <c r="AI61" s="22" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AJ61" s="18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AK61" s="22" t="s">
-        <v>1430</v>
       </c>
       <c r="AL61" s="26"/>
       <c r="AM61" s="18" t="s">
         <v>325</v>
       </c>
       <c r="AN61" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AO61" s="18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AP61" s="18" t="s">
         <v>1431</v>
       </c>
-      <c r="AO61" s="18" t="s">
+      <c r="AQ61" s="18" t="s">
         <v>1432</v>
       </c>
-      <c r="AP61" s="18" t="s">
+      <c r="AR61" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS61" s="18" t="s">
         <v>1433</v>
       </c>
-      <c r="AQ61" s="18" t="s">
+      <c r="AT61" s="18" t="s">
         <v>1434</v>
       </c>
-      <c r="AR61" s="26" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS61" s="18" t="s">
+      <c r="AU61" s="18" t="s">
         <v>1435</v>
-      </c>
-      <c r="AT61" s="18" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AU61" s="18" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="62" spans="1:47" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D62" s="18">
         <v>130</v>
@@ -14583,10 +14588,10 @@
         <v>15</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>142</v>
@@ -14595,10 +14600,10 @@
         <v>143</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="P62" s="18" t="s">
         <v>146</v>
@@ -14610,22 +14615,22 @@
         <v>57</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="U62" s="26" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="V62" s="18" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="X62" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y62" s="52" t="s">
         <v>63</v>
@@ -14643,7 +14648,7 @@
         <v>63</v>
       </c>
       <c r="AD62" s="18" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AE62" s="18" t="s">
         <v>63</v>
@@ -14655,55 +14660,55 @@
         <v>63</v>
       </c>
       <c r="AH62" s="18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AI62" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AJ62" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK62" s="22" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AL62" s="26"/>
       <c r="AM62" s="18" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AN62" s="18" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AO62" s="18" t="s">
         <v>1448</v>
       </c>
-      <c r="AN62" s="18" t="s">
+      <c r="AP62" s="18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AQ62" s="18" t="s">
         <v>1449</v>
-      </c>
-      <c r="AO62" s="18" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AP62" s="18" t="s">
-        <v>1442</v>
-      </c>
-      <c r="AQ62" s="18" t="s">
-        <v>1451</v>
       </c>
       <c r="AR62" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AS62" s="18" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AT62" s="18" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU62" s="18" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="63" spans="1:47" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D63" s="18">
         <v>100</v>
@@ -14724,10 +14729,10 @@
         <v>30</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="L63" s="21" t="s">
         <v>52</v>
@@ -14736,13 +14741,13 @@
         <v>53</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="P63" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q63" s="18" t="s">
         <v>114</v>
@@ -14751,22 +14756,22 @@
         <v>115</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="U63" s="26" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="V63" s="18" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="X63" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y63" s="52" t="s">
         <v>63</v>
@@ -14781,10 +14786,10 @@
         <v>63</v>
       </c>
       <c r="AC63" s="18" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AD63" s="18" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="AE63" s="18" t="s">
         <v>63</v>
@@ -14796,55 +14801,55 @@
         <v>63</v>
       </c>
       <c r="AH63" s="18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AI63" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AJ63" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK63" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AL63" s="26"/>
       <c r="AM63" s="18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AN63" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AO63" s="18" t="s">
         <v>1465</v>
       </c>
-      <c r="AN63" s="18" t="s">
+      <c r="AP63" s="18" t="s">
         <v>1466</v>
       </c>
-      <c r="AO63" s="18" t="s">
+      <c r="AQ63" s="18" t="s">
         <v>1467</v>
       </c>
-      <c r="AP63" s="18" t="s">
+      <c r="AR63" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS63" s="18" t="s">
         <v>1468</v>
       </c>
-      <c r="AQ63" s="18" t="s">
+      <c r="AT63" s="18" t="s">
         <v>1469</v>
       </c>
-      <c r="AR63" s="26" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS63" s="18" t="s">
-        <v>1470</v>
-      </c>
-      <c r="AT63" s="18" t="s">
-        <v>1471</v>
-      </c>
       <c r="AU63" s="18" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="64" spans="1:47" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D64" s="18">
         <v>90</v>
@@ -14865,10 +14870,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="L64" s="21" t="s">
         <v>52</v>
@@ -14877,13 +14882,13 @@
         <v>53</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="P64" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q64" s="18" t="s">
         <v>56</v>
@@ -14892,10 +14897,10 @@
         <v>57</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="U64" s="26" t="s">
         <v>433</v>
@@ -14904,10 +14909,10 @@
         <v>434</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="X64" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y64" s="52" t="s">
         <v>63</v>
@@ -14922,10 +14927,10 @@
         <v>63</v>
       </c>
       <c r="AC64" s="18" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AD64" s="18" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AE64" s="18" t="s">
         <v>63</v>
@@ -14937,41 +14942,41 @@
         <v>63</v>
       </c>
       <c r="AH64" s="18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AI64" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AJ64" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK64" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AL64" s="26"/>
       <c r="AM64" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN64" s="18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AO64" s="18" t="s">
         <v>1481</v>
       </c>
-      <c r="AN64" s="18" t="s">
+      <c r="AP64" s="18" t="s">
         <v>1482</v>
       </c>
-      <c r="AO64" s="18" t="s">
+      <c r="AQ64" s="18" t="s">
         <v>1483</v>
       </c>
-      <c r="AP64" s="18" t="s">
+      <c r="AR64" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS64" s="18" t="s">
         <v>1484</v>
       </c>
-      <c r="AQ64" s="18" t="s">
+      <c r="AT64" s="18" t="s">
         <v>1485</v>
-      </c>
-      <c r="AR64" s="26" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS64" s="18" t="s">
-        <v>1486</v>
-      </c>
-      <c r="AT64" s="18" t="s">
-        <v>1487</v>
       </c>
       <c r="AU64" s="18" t="s">
         <v>447</v>
@@ -14979,13 +14984,13 @@
     </row>
     <row r="65" spans="1:47" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D65" s="18">
         <v>80</v>
@@ -15006,10 +15011,10 @@
         <v>10</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="L65" s="21" t="s">
         <v>52</v>
@@ -15018,13 +15023,13 @@
         <v>53</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q65" s="18" t="s">
         <v>56</v>
@@ -15033,10 +15038,10 @@
         <v>57</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="T65" s="18" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="U65" s="26" t="s">
         <v>796</v>
@@ -15045,10 +15050,10 @@
         <v>797</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="X65" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y65" s="52" t="s">
         <v>63</v>
@@ -15063,10 +15068,10 @@
         <v>63</v>
       </c>
       <c r="AC65" s="18" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AD65" s="18" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AE65" s="18" t="s">
         <v>63</v>
@@ -15078,41 +15083,41 @@
         <v>63</v>
       </c>
       <c r="AH65" s="18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AI65" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AJ65" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK65" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AL65" s="26"/>
       <c r="AM65" s="18" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AN65" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AO65" s="18" t="s">
         <v>1497</v>
       </c>
-      <c r="AN65" s="18" t="s">
+      <c r="AP65" s="18" t="s">
         <v>1498</v>
       </c>
-      <c r="AO65" s="18" t="s">
+      <c r="AQ65" s="18" t="s">
         <v>1499</v>
       </c>
-      <c r="AP65" s="18" t="s">
+      <c r="AR65" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS65" s="18" t="s">
         <v>1500</v>
       </c>
-      <c r="AQ65" s="18" t="s">
+      <c r="AT65" s="18" t="s">
         <v>1501</v>
-      </c>
-      <c r="AR65" s="26" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS65" s="18" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AT65" s="18" t="s">
-        <v>1503</v>
       </c>
       <c r="AU65" s="18" t="s">
         <v>811</v>
@@ -15120,13 +15125,13 @@
     </row>
     <row r="66" spans="1:47" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D66" s="18">
         <v>120</v>
@@ -15147,10 +15152,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="L66" s="21" t="s">
         <v>52</v>
@@ -15159,13 +15164,13 @@
         <v>53</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="P66" s="26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="Q66" s="18" t="s">
         <v>114</v>
@@ -15174,22 +15179,22 @@
         <v>115</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="T66" s="18" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="U66" s="26" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="V66" s="18" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="X66" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y66" s="52" t="s">
         <v>63</v>
@@ -15204,10 +15209,10 @@
         <v>63</v>
       </c>
       <c r="AC66" s="18" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AD66" s="18" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="AE66" s="18" t="s">
         <v>63</v>
@@ -15219,55 +15224,55 @@
         <v>63</v>
       </c>
       <c r="AH66" s="18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AI66" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK66" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AL66" s="26"/>
       <c r="AM66" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AN66" s="18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AO66" s="18" t="s">
         <v>1513</v>
       </c>
-      <c r="AN66" s="18" t="s">
+      <c r="AP66" s="18" t="s">
         <v>1514</v>
       </c>
-      <c r="AO66" s="18" t="s">
+      <c r="AQ66" s="18" t="s">
         <v>1515</v>
       </c>
-      <c r="AP66" s="18" t="s">
+      <c r="AR66" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AS66" s="18" t="s">
         <v>1516</v>
       </c>
-      <c r="AQ66" s="18" t="s">
+      <c r="AT66" s="18" t="s">
         <v>1517</v>
       </c>
-      <c r="AR66" s="26" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS66" s="18" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AT66" s="18" t="s">
-        <v>1519</v>
-      </c>
       <c r="AU66" s="18" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="67" spans="1:47" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D67" s="18">
         <v>80</v>
@@ -15288,10 +15293,10 @@
         <v>33</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>142</v>
@@ -15300,10 +15305,10 @@
         <v>143</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="P67" s="18" t="s">
         <v>196</v>
@@ -15315,22 +15320,22 @@
         <v>57</v>
       </c>
       <c r="S67" s="18" t="s">
+        <v>1524</v>
+      </c>
+      <c r="T67" s="18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="U67" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V67" s="18" t="s">
         <v>1526</v>
       </c>
-      <c r="T67" s="18" t="s">
-        <v>1527</v>
-      </c>
-      <c r="U67" s="26" t="s">
-        <v>1626</v>
-      </c>
-      <c r="V67" s="18" t="s">
-        <v>1528</v>
-      </c>
       <c r="W67" s="22" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="X67" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y67" s="52" t="s">
         <v>63</v>
@@ -15348,10 +15353,10 @@
         <v>63</v>
       </c>
       <c r="AD67" s="18" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="AE67" s="18" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AF67" s="18" t="s">
         <v>63</v>
@@ -15360,55 +15365,55 @@
         <v>63</v>
       </c>
       <c r="AH67" s="18" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AI67" s="22" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AJ67" s="18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AK67" s="22" t="s">
         <v>1531</v>
-      </c>
-      <c r="AI67" s="22" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AJ67" s="18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AK67" s="22" t="s">
-        <v>1533</v>
       </c>
       <c r="AL67" s="26"/>
       <c r="AM67" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AN67" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AO67" s="18" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AP67" s="18" t="s">
         <v>1534</v>
       </c>
-      <c r="AN67" s="18" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AO67" s="18" t="s">
+      <c r="AQ67" s="18" t="s">
         <v>1535</v>
-      </c>
-      <c r="AP67" s="18" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AQ67" s="18" t="s">
-        <v>1537</v>
       </c>
       <c r="AR67" s="18" t="s">
         <v>211</v>
       </c>
       <c r="AS67" s="18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AT67" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AU67" s="18" t="s">
         <v>1538</v>
-      </c>
-      <c r="AT67" s="18" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AU67" s="18" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="68" spans="1:47" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D68" s="18">
         <v>120</v>
@@ -15429,10 +15434,10 @@
         <v>28</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="L68" s="21" t="s">
         <v>109</v>
@@ -15441,10 +15446,10 @@
         <v>110</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="P68" s="18" t="s">
         <v>113</v>
@@ -15456,22 +15461,22 @@
         <v>57</v>
       </c>
       <c r="S68" s="18" t="s">
+        <v>1545</v>
+      </c>
+      <c r="T68" s="18" t="s">
+        <v>1546</v>
+      </c>
+      <c r="U68" s="26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="V68" s="18" t="s">
         <v>1547</v>
       </c>
-      <c r="T68" s="18" t="s">
-        <v>1548</v>
-      </c>
-      <c r="U68" s="26" t="s">
-        <v>1627</v>
-      </c>
-      <c r="V68" s="18" t="s">
-        <v>1549</v>
-      </c>
       <c r="W68" s="22" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="X68" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y68" s="52" t="s">
         <v>63</v>
@@ -15486,13 +15491,13 @@
         <v>63</v>
       </c>
       <c r="AC68" s="18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AD68" s="18" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AE68" s="18" t="s">
         <v>1550</v>
-      </c>
-      <c r="AD68" s="18" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AE68" s="18" t="s">
-        <v>1552</v>
       </c>
       <c r="AF68" s="18" t="s">
         <v>63</v>
@@ -15501,55 +15506,55 @@
         <v>63</v>
       </c>
       <c r="AH68" s="18" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AJ68" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK68" s="22" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="AL68" s="26"/>
       <c r="AM68" s="18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AN68" s="18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AO68" s="18" t="s">
         <v>1554</v>
       </c>
-      <c r="AN68" s="18" t="s">
+      <c r="AP68" s="18" t="s">
         <v>1555</v>
       </c>
-      <c r="AO68" s="18" t="s">
+      <c r="AQ68" s="18" t="s">
         <v>1556</v>
-      </c>
-      <c r="AP68" s="18" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AQ68" s="18" t="s">
-        <v>1558</v>
       </c>
       <c r="AR68" s="18" t="s">
         <v>133</v>
       </c>
       <c r="AS68" s="18" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AT68" s="18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AU68" s="18" t="s">
         <v>1559</v>
-      </c>
-      <c r="AT68" s="18" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AU68" s="18" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="69" spans="1:47" ht="15.75" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D69" s="18">
         <v>80</v>
@@ -15570,10 +15575,10 @@
         <v>19</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="L69" s="21" t="s">
         <v>109</v>
@@ -15585,7 +15590,7 @@
         <v>658</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="P69" s="18" t="s">
         <v>270</v>
@@ -15597,22 +15602,22 @@
         <v>115</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="U69" s="26" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="V69" s="18" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="X69" s="51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Y69" s="52" t="s">
         <v>63</v>
@@ -15630,10 +15635,10 @@
         <v>63</v>
       </c>
       <c r="AD69" s="18" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="AE69" s="18" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="AF69" s="18" t="s">
         <v>63</v>
@@ -15642,44 +15647,44 @@
         <v>63</v>
       </c>
       <c r="AH69" s="18" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AI69" s="22" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AK69" s="22" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="AL69" s="26"/>
       <c r="AM69" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AN69" s="18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AO69" s="18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AP69" s="18" t="s">
         <v>1572</v>
       </c>
-      <c r="AN69" s="18" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AO69" s="18" t="s">
+      <c r="AQ69" s="18" t="s">
         <v>1573</v>
-      </c>
-      <c r="AP69" s="18" t="s">
-        <v>1574</v>
-      </c>
-      <c r="AQ69" s="18" t="s">
-        <v>1575</v>
       </c>
       <c r="AR69" s="18" t="s">
         <v>283</v>
       </c>
       <c r="AS69" s="18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AT69" s="18" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AU69" s="18" t="s">
         <v>1576</v>
-      </c>
-      <c r="AT69" s="18" t="s">
-        <v>1577</v>
-      </c>
-      <c r="AU69" s="18" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="70" spans="1:47" ht="15.75" customHeight="1">
